--- a/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>ALLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,72 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,8 +767,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,8 +811,14 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -836,8 +855,14 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,35 +877,37 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>49800</v>
+      </c>
+      <c r="F12" s="3">
         <v>39300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>30000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>20700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>17000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>9000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>120600</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -890,8 +917,14 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,35 +961,41 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>2700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>4500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>21300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>3700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -966,8 +1005,14 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1049,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,46 +1068,54 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>64600</v>
+      </c>
+      <c r="F17" s="3">
         <v>55000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>46000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>36500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>34800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>41600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>137600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1064,37 +1123,43 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-46000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-36500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-34800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-41600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-137600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,8 +1174,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1118,28 +1185,28 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G20" s="3">
         <v>4600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>4800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1147,8 +1214,14 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1156,61 +1229,67 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-40300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-30900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-30100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-39600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-137000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>3400</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,46 +1302,58 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-50700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-41400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-31600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-30600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-43500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-137500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1273,25 +1364,25 @@
         <v>-200</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1299,8 +1390,14 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1434,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-50700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-41200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-31600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-30500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-43500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-137500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-50700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-41200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-31600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-30500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-43500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-137500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1566,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1610,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1654,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,8 +1698,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1574,28 +1713,28 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-4600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-4800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1603,46 +1742,58 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-50700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-41200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-31600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-30500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-43500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-137500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1830,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-50700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-41200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-31600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-30500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-43500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-137500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1945,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,35 +1963,37 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>175100</v>
+      </c>
+      <c r="F41" s="3">
         <v>161000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>112600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>92700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>92400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>83100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>143900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,32 +2003,38 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>357000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>355400</v>
+      </c>
+      <c r="F42" s="3">
         <v>340300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>389800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>373400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>367000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>161100</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,23 +2047,29 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F43" s="3">
         <v>2300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3300</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1894,11 +2079,11 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -1906,8 +2091,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,35 +2135,41 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F45" s="3">
         <v>6200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>10500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>8600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,35 +2179,41 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>504400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>544600</v>
+      </c>
+      <c r="F46" s="3">
         <v>509800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>511500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>476600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>468000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>247400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>144300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,32 +2223,38 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>63200</v>
+      </c>
+      <c r="F47" s="3">
         <v>100700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>147800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>214600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>262000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>154000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2058,35 +2267,41 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>110200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>100900</v>
+      </c>
+      <c r="F48" s="3">
         <v>77400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>67700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>52800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>41600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>29700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,35 +2311,41 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>200</v>
+      </c>
+      <c r="F49" s="3">
         <v>300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2134,8 +2355,14 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2399,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,32 +2443,38 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F52" s="3">
         <v>7400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>6500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>4700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2487,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,35 +2531,41 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>688500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>717800</v>
+      </c>
+      <c r="F54" s="3">
         <v>695500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>734000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>749400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>773900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>435200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>148800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2575,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2597,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,35 +2615,37 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F57" s="3">
         <v>8000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>23500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>13000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>12300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,8 +2655,14 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2411,15 +2678,15 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>139600</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2432,35 +2699,41 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F59" s="3">
         <v>25300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>14500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>14300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>17100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>16800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>13500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,35 +2743,41 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>33100</v>
+      </c>
+      <c r="F60" s="3">
         <v>33400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>38000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>27300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>29500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>159500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>14700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,8 +2787,14 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2546,35 +2831,41 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>55700</v>
+      </c>
+      <c r="F62" s="3">
         <v>42500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>40400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>40900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>41200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>33100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2875,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2919,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2963,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,35 +3007,41 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>88800</v>
+      </c>
+      <c r="F66" s="3">
         <v>75800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>78400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>68100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>70700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>192600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>17200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +3051,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +3073,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +3113,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +3157,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2846,17 +3181,17 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>411100</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>411100</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -2866,8 +3201,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,35 +3245,41 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-450600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-396100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-335100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-284400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-243100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-211500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-181000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-137500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3289,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3333,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3377,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,35 +3421,41 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>606500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>629000</v>
+      </c>
+      <c r="F76" s="3">
         <v>619700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>655600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>681200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>703200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-168400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-279400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3465,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3509,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-50700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-41200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-31600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-30500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-43500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-137500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,37 +3624,39 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F83" s="3">
         <v>1300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>500</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="K83" s="3">
+        <v>500</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3267,8 +3664,14 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3708,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3752,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3796,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3840,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,37 +3884,43 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-31900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-24900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-30300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-21500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-17100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-6000</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3495,8 +3928,14 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,35 +3950,37 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-18400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-7900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-10400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3549,8 +3990,14 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +4034,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,37 +4078,43 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F94" s="3">
         <v>78800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>44500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>32900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-313400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-316800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2600</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -3663,8 +4122,14 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +4144,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +4184,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +4228,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4272,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,37 +4316,43 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>56500</v>
+      </c>
+      <c r="F100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>344500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>274100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>152600</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -3869,8 +4360,14 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,42 +4404,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F102" s="3">
         <v>48400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>19800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>9700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-59800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>143900</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
   <si>
     <t>ALLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,8 +730,11 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -773,8 +777,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,8 +824,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,38 +892,39 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E12" s="3">
         <v>42000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>49800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>39300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>30000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>120600</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -923,8 +937,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,38 +984,41 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>-400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>21300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3700</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1011,8 +1031,11 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,41 +1096,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E17" s="3">
         <v>57700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>64600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>55000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>46000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>36500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>41600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>137600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,8 +1141,11 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1123,32 +1153,32 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-64600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-55000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-46000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-36500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-34800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-41600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-137600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1188,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,8 +1209,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,31 +1219,31 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F20" s="3">
         <v>3400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1220,8 +1254,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1229,32 +1266,32 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-59300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-49400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-40300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-30900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-30100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-39600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-137000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,35 +1301,38 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>3400</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1308,41 +1348,44 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-54500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-61200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-50700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-41400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-31600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-30600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-43500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-137500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1395,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1361,31 +1407,31 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-100</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="J24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1396,8 +1442,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,41 +1489,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-54500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-61000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-50700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-41200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-31600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-30500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-43500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-137500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1484,41 +1536,44 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-54500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-61000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-50700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-41200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-31600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-30500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-43500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-137500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,8 +1583,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,8 +1771,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1713,31 +1783,31 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1748,41 +1818,44 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-54500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-61000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-50700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-41200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-31600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-30500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-43500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-137500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1865,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,41 +1912,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-54500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-61000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-50700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-41200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-31600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-30500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-43500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-137500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,46 +1959,49 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1929,8 +2011,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,38 +2051,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>280400</v>
+      </c>
+      <c r="E41" s="3">
         <v>135900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>175100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>161000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>112600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>92700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>92400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>83100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>143900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,35 +2096,38 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>619300</v>
+      </c>
+      <c r="E42" s="3">
         <v>357000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>355400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>340300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>389800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>373400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>367000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>161100</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,26 +2143,29 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
         <v>2400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3300</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,8 +2178,8 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2097,8 +2190,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,38 +2237,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E45" s="3">
         <v>11500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,38 +2284,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>909600</v>
+      </c>
+      <c r="E46" s="3">
         <v>504400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>544600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>509800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>511500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>476600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>468000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>247400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>144300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,35 +2331,38 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>215500</v>
+      </c>
+      <c r="E47" s="3">
         <v>65000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>63200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>100700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>147800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>214600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>262000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>154000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2273,38 +2378,41 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E48" s="3">
         <v>110200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>100900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>77400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>67700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>52800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>41600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,8 +2425,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2326,29 +2437,29 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2361,8 +2472,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,35 +2566,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E52" s="3">
         <v>9000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,8 +2613,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,38 +2660,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1258500</v>
+      </c>
+      <c r="E54" s="3">
         <v>688500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>717800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>695500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>734000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>749400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>773900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>435200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>148800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,38 +2747,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E57" s="3">
         <v>7200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>23500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2792,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2684,12 +2818,12 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>139600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,38 +2839,41 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E59" s="3">
         <v>19600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>25300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,38 +2886,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E60" s="3">
         <v>26800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>38000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>27300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>29500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>159500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,8 +2933,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2837,38 +2980,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E62" s="3">
         <v>55200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>55700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>42500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>40400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>40900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>41200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>33100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,8 +3027,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,38 +3168,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>95100</v>
+      </c>
+      <c r="E66" s="3">
         <v>82000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>88800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>75800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>78400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>68100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>70700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>192600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3187,13 +3355,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>411100</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>411100</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>411100</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3207,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,38 +3422,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-511600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-450600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-396100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-335100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-284400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-243100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-211500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-181000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-137500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,38 +3610,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1163400</v>
+      </c>
+      <c r="E76" s="3">
         <v>606500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>629000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>619700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>655600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>681200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>703200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-168400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-279400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,46 +3704,49 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3564,41 +3756,44 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-54500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-61000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-50700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-41200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-31600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-30500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-43500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-137500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3608,8 +3803,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,28 +3824,29 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E83" s="3">
         <v>2000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>500</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -3656,10 +3855,10 @@
         <v>500</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3670,8 +3869,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,40 +4104,43 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-40800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-50300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-31900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-24900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-30300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-21500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6000</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
@@ -3934,8 +4151,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,38 +4172,39 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3996,8 +4217,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,40 +4311,43 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-429000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>7900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>78800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>44500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>32900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-313400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-316800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2600</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4128,8 +4358,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,40 +4565,43 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600200</v>
+      </c>
+      <c r="E100" s="3">
         <v>16600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>56500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>344500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>274100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>152600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4366,8 +4612,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,40 +4659,43 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>144500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-39200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>48400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>19800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-59800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>143900</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
@@ -4452,6 +4704,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
   <si>
     <t>ALLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -733,8 +734,11 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -780,8 +784,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -827,8 +834,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,41 +906,42 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E12" s="3">
         <v>47300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>42000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>49800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>39300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>30000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>17000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>120600</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -940,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,8 +1004,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -998,30 +1018,30 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>-400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>21300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3700</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1034,8 +1054,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,44 +1123,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E17" s="3">
         <v>63200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>57700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>64600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>55000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>46000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>36500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>137600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2600</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,8 +1171,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1153,35 +1183,35 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-57700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-64600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-55000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-46000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-36500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-34800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-41600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-137600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1221,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,8 +1243,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1219,34 +1253,34 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F20" s="3">
         <v>3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1257,8 +1291,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,35 +1303,35 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-52400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-59300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-49400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-40300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-30900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-30100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-39600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-137000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,8 +1341,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1315,27 +1355,27 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>3400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,44 +1391,47 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-61000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-54500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-61200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-50700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-41400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-31600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-30600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-43500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-137500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1398,8 +1441,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1410,31 +1456,31 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-100</v>
       </c>
       <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1445,8 +1491,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,44 +1541,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-61000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-54500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-61000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-50700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-41200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-31600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-30500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-43500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-137500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2600</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1539,44 +1591,47 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-61000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-54500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-61000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-50700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-41200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-31600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-30500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-43500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-137500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1586,8 +1641,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,8 +1841,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1783,34 +1853,34 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1821,44 +1891,47 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-61000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-54500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-61000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-50700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-41200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-31600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-30500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-43500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-137500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,8 +1941,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,44 +1991,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-61000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-54500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-61000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-50700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-41200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-31600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-30500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-43500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-137500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,49 +2041,52 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2014,8 +2096,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,41 +2138,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>158100</v>
+      </c>
+      <c r="E41" s="3">
         <v>280400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>135900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>175100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>161000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>112600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>92700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>92400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>83100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>143900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,38 +2186,41 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>682900</v>
+      </c>
+      <c r="E42" s="3">
         <v>619300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>357000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>355400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>340300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>389800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>373400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>367000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>161100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2146,8 +2236,11 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2157,18 +2250,18 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
         <v>2400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2181,8 +2274,8 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2193,8 +2286,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2240,41 +2336,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E45" s="3">
         <v>9900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,41 +2386,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>854100</v>
+      </c>
+      <c r="E46" s="3">
         <v>909600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>504400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>544600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>509800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>511500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>476600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>468000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>247400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>144300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,38 +2436,41 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>212500</v>
+      </c>
+      <c r="E47" s="3">
         <v>215500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>65000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>63200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>100700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>147800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>214600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>262000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>154000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2381,41 +2486,44 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>144200</v>
+      </c>
+      <c r="E48" s="3">
         <v>127000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>110200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>100900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>77400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>67700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>52800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>41600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3500</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,8 +2536,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2440,29 +2551,29 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2475,8 +2586,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,38 +2686,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E52" s="3">
         <v>6500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,41 +2786,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1222500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1258500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>688500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>717800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>695500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>734000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>749400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>773900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>435200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>148800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,41 +2878,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E57" s="3">
         <v>9100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>23500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>13000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,38 +2926,41 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>139600</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2842,41 +2976,44 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E59" s="3">
         <v>31800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>19600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>25300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,41 +3026,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E60" s="3">
         <v>40900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>38000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>27300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>29500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>159500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,8 +3076,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2983,41 +3126,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E62" s="3">
         <v>54200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>55200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>55700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>42500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>40400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>40900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>41200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>33100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,41 +3326,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>103800</v>
+      </c>
+      <c r="E66" s="3">
         <v>95100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>88800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>75800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>78400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>68100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>70700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>192600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3358,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>411100</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>411100</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>411100</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,41 +3596,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-577800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-511600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-450600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-396100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-335100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-284400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-243100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-211500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-181000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-137500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,41 +3796,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1118700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1163400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>606500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>629000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>619700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>655600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>681200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>703200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-168400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-279400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,49 +3896,52 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3759,44 +3951,47 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-61000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-54500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-61000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-50700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-41200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-31600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-30500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-43500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-137500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3806,8 +4001,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,31 +4023,32 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>500</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
@@ -3858,10 +4057,10 @@
         <v>500</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -3872,8 +4071,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,43 +4321,46 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-26700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-40800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-50300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-31900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-24900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-30300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-21500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6000</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
@@ -4154,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,41 +4393,42 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,8 +4441,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,43 +4541,46 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-83400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-429000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>7900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>78800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>44500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>32900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-313400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-316800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2600</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4361,8 +4591,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,43 +4811,46 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E100" s="3">
         <v>600200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>16600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>56500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>344500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>274100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>152600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -4615,8 +4861,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,43 +4911,46 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-117100</v>
+      </c>
+      <c r="E102" s="3">
         <v>144500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-39200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>48400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>19800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-59800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>143900</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
@@ -4707,6 +4959,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
   <si>
     <t>ALLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,69 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -737,8 +737,11 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -787,8 +790,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,8 +843,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,44 +919,45 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E12" s="3">
         <v>51400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>47300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>42000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>49800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>39300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>30000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>120600</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -957,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,13 +1023,16 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1021,30 +1040,30 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>-400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>21300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3700</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1057,8 +1076,11 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,47 +1149,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>69400</v>
+      </c>
+      <c r="E17" s="3">
         <v>68000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>63200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>57700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>64600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>55000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>46000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>36500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>41600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>137600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1174,8 +1200,11 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1183,38 +1212,38 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-63200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-57700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-64600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-55000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-46000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-36500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-34800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-41600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-137600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,8 +1276,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1253,37 +1286,37 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1294,8 +1327,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1303,38 +1339,38 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-59100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-52400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-59300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-49400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-40300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-30900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-30100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-39600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-137000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,13 +1380,16 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1358,27 +1397,27 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>3400</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1394,47 +1433,50 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-68600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-66200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-61000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-54500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-61200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-50700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-41400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-31600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-30600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-43500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-137500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1444,8 +1486,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1459,31 +1504,31 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-100</v>
       </c>
       <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="L24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1494,8 +1539,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,47 +1592,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-68600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-66200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-61000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-54500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-61000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-50700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-41200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-31600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-30500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-43500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-137500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1594,47 +1645,50 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-68600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-66200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-61000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-54500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-61000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-50700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-41200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-31600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-30500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-43500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-137500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1644,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,8 +1910,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1853,37 +1922,37 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1894,47 +1963,50 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-68600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-66200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-61000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-54500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-61000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-50700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-41200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-31600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-30500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-43500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-137500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1944,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,47 +2069,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-68600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-66200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-61000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-54500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-61000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-50700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-41200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-31600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-30500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-43500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-137500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2044,52 +2122,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,44 +2224,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>183400</v>
+      </c>
+      <c r="E41" s="3">
         <v>158100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>280400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>135900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>175100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>161000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>112600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>92700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>92400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>83100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>143900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,41 +2275,44 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>644600</v>
+      </c>
+      <c r="E42" s="3">
         <v>682900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>619300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>357000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>355400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>340300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>389800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>373400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>367000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>161100</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,8 +2328,11 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2253,18 +2345,18 @@
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
         <v>2400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2277,8 +2369,8 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2289,8 +2381,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,44 +2434,47 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E45" s="3">
         <v>13000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,44 +2487,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>845100</v>
+      </c>
+      <c r="E46" s="3">
         <v>854100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>909600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>504400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>544600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>509800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>511500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>476600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>468000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>247400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>144300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,41 +2540,44 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>207900</v>
+      </c>
+      <c r="E47" s="3">
         <v>212500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>215500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>65000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>63200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>100700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>147800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>214600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>262000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>154000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2489,44 +2593,47 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>160100</v>
+      </c>
+      <c r="E48" s="3">
         <v>144200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>127000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>110200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>100900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>77400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>67700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>52800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>41600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3500</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,8 +2646,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2554,29 +2664,29 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2699,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,41 +2805,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E52" s="3">
         <v>11700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,44 +2911,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1227800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1222500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1258500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>688500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>717800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>695500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>734000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>749400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>773900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>435200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>148800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,44 +3008,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E57" s="3">
         <v>10200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>23500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>13000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3059,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2955,15 +3088,15 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
         <v>139600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2979,44 +3112,47 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E59" s="3">
         <v>40000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>31800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>25300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,44 +3165,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E60" s="3">
         <v>50100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>40900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>33400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>38000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>27300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>159500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,8 +3218,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3129,44 +3271,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E62" s="3">
         <v>53600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>54200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>55200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>55700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>42500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>40400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>40900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>41200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>33100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,44 +3483,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>148200</v>
+      </c>
+      <c r="E66" s="3">
         <v>103800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>95100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>82000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>88800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>75800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>78400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>68100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>70700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>192600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3529,13 +3696,13 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>411100</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>411100</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>411100</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -3549,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,44 +3769,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-646300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-577800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-511600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-450600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-396100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-335100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-284400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-243100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-211500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-181000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-137500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,44 +3981,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1079600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1118700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1163400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>606500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>629000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>619700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>655600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>681200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>703200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-168400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-279400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,52 +4087,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3954,47 +4145,50 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-68600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-66200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-61000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-54500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-61000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-50700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-41200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-31600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-30500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-43500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-137500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,8 +4221,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4033,25 +4231,25 @@
         <v>1800</v>
       </c>
       <c r="E83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>500</v>
       </c>
       <c r="L83" s="3">
         <v>500</v>
@@ -4060,10 +4258,10 @@
         <v>500</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4074,8 +4272,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,46 +4537,49 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-37600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-26700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-40800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-50300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-31900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-24900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-30300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-21500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6000</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
@@ -4374,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,44 +4613,45 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4444,8 +4664,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,46 +4770,49 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-83400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-429000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>7900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>78800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>44500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>32900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-313400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-316800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2600</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -4594,8 +4823,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,46 +5056,49 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E100" s="3">
         <v>3900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>16600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>56500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>344500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>274100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>152600</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -4864,8 +5109,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,46 +5162,49 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-117100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>144500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-39200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>48400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-59800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>143900</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
@@ -4962,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
   <si>
     <t>ALLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,31 +741,34 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -793,8 +797,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,8 +853,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,47 +933,48 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E12" s="3">
         <v>52200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>51400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>47300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>42000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>49800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>39300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>30000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>17000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>120600</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,16 +1043,19 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1043,30 +1063,30 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>-400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>21300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3700</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1079,8 +1099,11 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,50 +1176,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E17" s="3">
         <v>69400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>68000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>63200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>57700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>64600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>55000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>46000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>41600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>137600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2600</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,50 +1230,53 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-68000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-63200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-57700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-64600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-55000</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-46000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-36500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-34800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-41600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-137600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1286,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,49 +1310,50 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>4600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1330,50 +1364,53 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-64400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-59100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-52400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-59300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-49400</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-40300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-30900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-30100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-39600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-137000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,16 +1420,19 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1400,27 +1440,27 @@
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>3400</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1436,50 +1476,53 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-68600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-66200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-61000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-54500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-61200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-50700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-41400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-31600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-30600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-43500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-137500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,13 +1532,16 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1507,31 +1553,31 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-100</v>
       </c>
       <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1542,8 +1588,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,50 +1644,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-68600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-66200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-61000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-54500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-61000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-50700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-41200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-31600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-30500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-43500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-137500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,50 +1700,53 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-68600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-66200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-61000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-54500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-61000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-50700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-41200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-31600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-30500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-43500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-137500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1756,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1868,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,49 +1980,52 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1966,50 +2036,53 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-68600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-66200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-61000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-54500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-61000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-50700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-41200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-31600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-30500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-43500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-137500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2092,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,50 +2148,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-68600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-66200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-61000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-54500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-61000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-50700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-41200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-31600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-30500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-43500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-137500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,55 +2204,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2265,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,47 +2311,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>236900</v>
+      </c>
+      <c r="E41" s="3">
         <v>183400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>158100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>280400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>135900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>175100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>161000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>112600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>92700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>92400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>83100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>143900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,44 +2365,47 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>462700</v>
+      </c>
+      <c r="E42" s="3">
         <v>644600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>682900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>619300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>357000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>355400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>340300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>389800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>373400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>367000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>161100</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,8 +2421,11 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2348,18 +2441,18 @@
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3">
         <v>2400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3300</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2465,8 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2384,8 +2477,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,47 +2533,50 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E45" s="3">
         <v>17200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,47 +2589,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>716100</v>
+      </c>
+      <c r="E46" s="3">
         <v>845100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>854100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>909600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>504400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>544600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>509800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>511500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>476600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>468000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>247400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>144300</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,44 +2645,47 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>283900</v>
+      </c>
+      <c r="E47" s="3">
         <v>207900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>212500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>215500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>65000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>63200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>100700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>147800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>214600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>262000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>154000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2596,47 +2701,50 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>163300</v>
+      </c>
+      <c r="E48" s="3">
         <v>160100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>144200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>127000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>110200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>100900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>77400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>67700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>52800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>41600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3500</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,13 +2757,16 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -2667,29 +2778,29 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,8 +2813,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,44 +2925,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E52" s="3">
         <v>14600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2981,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,47 +3037,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1179000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1227800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1222500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1258500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>688500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>717800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>695500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>734000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>749400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>773900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>435200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>148800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3093,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,47 +3139,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E57" s="3">
         <v>10400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>23500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,8 +3193,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3091,15 +3225,15 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
         <v>139600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3115,47 +3249,50 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E59" s="3">
         <v>83900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>40000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>31800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>25300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,47 +3305,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E60" s="3">
         <v>94300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>50100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>40900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>26800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>33100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>33400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>38000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>159500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14700</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,8 +3361,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3274,47 +3417,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E62" s="3">
         <v>53900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>53600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>54200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>55200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>55700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>42500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>40400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>40900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>41200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>33100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2500</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3473,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,47 +3641,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E66" s="3">
         <v>148200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>103800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>95100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>82000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>88800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>75800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>78400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>68100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>70700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>192600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3699,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>411100</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>411100</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>411100</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -3719,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,47 +3943,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-679400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-646300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-577800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-511600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-450600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-396100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-335100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-284400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-243100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-211500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-181000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-137500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +3999,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,47 +4167,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1069800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1079600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1118700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1163400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>606500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>629000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>619700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>655600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>681200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>703200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-168400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-279400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4223,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,55 +4279,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,50 +4340,53 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-68600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-66200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-61000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-54500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-61000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-50700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-41200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-31600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-30500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-43500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-137500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4396,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,37 +4420,38 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E83" s="3">
         <v>1800</v>
       </c>
       <c r="F83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>500</v>
       </c>
       <c r="M83" s="3">
         <v>500</v>
@@ -4261,10 +4460,10 @@
         <v>500</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4275,8 +4474,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,49 +4754,52 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-37600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-26700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-40800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-50300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-31900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-24900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-30300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-21500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-17100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6000</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
@@ -4593,8 +4810,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,47 +4834,48 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4888,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,49 +5000,52 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>96800</v>
+      </c>
+      <c r="E94" s="3">
         <v>22200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-83400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-429000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>7900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>78800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>44500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>32900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-313400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-316800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2600</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -4826,8 +5056,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,49 +5302,52 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E100" s="3">
         <v>13000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>16600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>56500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>344500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>274100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>152600</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -5112,8 +5358,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5165,49 +5414,52 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E102" s="3">
         <v>25200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-117100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>144500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-39200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>48400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>19800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-59800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>143900</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
@@ -5216,6 +5468,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="92">
   <si>
     <t>ALLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -744,17 +745,20 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>38300</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -770,8 +774,8 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -800,8 +804,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -856,8 +863,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,50 +947,51 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E12" s="3">
         <v>55200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>52200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>51400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>47300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>42000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>49800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>39300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>30000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>17000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>120600</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -990,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,19 +1063,22 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1066,30 +1086,30 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>-400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>21300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3700</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1102,8 +1122,11 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,53 +1203,54 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E17" s="3">
         <v>71500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>69400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>68000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>63200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>57700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>64600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>55000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>46000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>41600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>137600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2600</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1233,17 +1260,20 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-33200</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1259,27 +1289,27 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-46000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-36500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-34800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-41600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-137600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1289,8 +1319,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,17 +1344,18 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1337,26 +1371,26 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>4600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1367,17 +1401,20 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-31100</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1393,27 +1430,27 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-40300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-30900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-30100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-39600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-137000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1423,19 +1460,22 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1443,27 +1483,27 @@
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>3400</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,53 +1519,56 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-70900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-33000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-68600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-66200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-61000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-54500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-61200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-50700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-41400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-31600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-30600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-43500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-137500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1535,16 +1578,19 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1556,31 +1602,31 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-100</v>
       </c>
       <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="N24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1591,8 +1637,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,53 +1696,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-70900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-33000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-68600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-66200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-61000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-54500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-61000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-50700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-41200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-31600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-30500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-43500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-137500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,53 +1755,56 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-70900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-33000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-68600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-66200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-61000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-54500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-61000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-50700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-41200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-31600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-30500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-43500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-137500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1814,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1871,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,17 +2050,20 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,26 +2079,26 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>-4600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -2039,53 +2109,56 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-70900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-33000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-68600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-66200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-61000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-54500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-61000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-50700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-41200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-31600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-30500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-43500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-137500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,8 +2168,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,53 +2227,56 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-70900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-33000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-68600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-66200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-61000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-54500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-61000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-50700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-41200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-31600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-30500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-43500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-137500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,58 +2286,61 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2268,8 +2350,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,50 +2398,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>223500</v>
+      </c>
+      <c r="E41" s="3">
         <v>236900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>183400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>158100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>280400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>135900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>175100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>161000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>112600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>92700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>92400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>83100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>143900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,47 +2455,50 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>364200</v>
+      </c>
+      <c r="E42" s="3">
         <v>462700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>644600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>682900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>619300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>357000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>355400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>340300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>389800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>373400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>367000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>161100</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2424,8 +2514,11 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2444,18 +2537,18 @@
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3">
         <v>2400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2468,8 +2561,8 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2480,8 +2573,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2536,50 +2632,53 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E45" s="3">
         <v>16500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,50 +2691,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>602200</v>
+      </c>
+      <c r="E46" s="3">
         <v>716100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>845100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>854100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>909600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>504400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>544600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>509800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>511500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>476600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>468000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>247400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>144300</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,47 +2750,50 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>344300</v>
+      </c>
+      <c r="E47" s="3">
         <v>283900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>207900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>212500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>215500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>65000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>63200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>100700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>147800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>214600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>262000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>154000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,50 +2809,53 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>164900</v>
+      </c>
+      <c r="E48" s="3">
         <v>163300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>160100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>144200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>127000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>110200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>100900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>77400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>67700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>52800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>41600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3500</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2760,16 +2868,19 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2781,29 +2892,29 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1100</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2816,8 +2927,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,47 +3045,50 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E52" s="3">
         <v>15700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,8 +3104,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,50 +3163,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1126700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1179000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1227800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1222500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1258500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>688500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>717800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>695500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>734000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>749400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>773900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>435200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>148800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3222,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,50 +3270,51 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E57" s="3">
         <v>14900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>23500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3196,8 +3327,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3228,15 +3362,15 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
         <v>139600</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3252,50 +3386,53 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E59" s="3">
         <v>40000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>83900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>40000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>31800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>25300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3308,50 +3445,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E60" s="3">
         <v>54800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>94300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>50100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>40900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>26800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>33100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>33400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>159500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14700</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3364,8 +3504,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3420,50 +3563,53 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E62" s="3">
         <v>54400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>53900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>53600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>54200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>55200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>55700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>42500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>40400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>40900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>41200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>33100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3622,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,50 +3799,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>102900</v>
+      </c>
+      <c r="E66" s="3">
         <v>109300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>148200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>103800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>95100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>82000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>88800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>75800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>78400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>68100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>70700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>192600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3700,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3870,13 +4038,13 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>411100</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>411100</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>411100</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -3890,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,50 +4117,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-750300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-679400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-646300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-577800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-511600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-450600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-396100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-335100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-284400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-243100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-211500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-181000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-137500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4176,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,50 +4353,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1023800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1069800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1079600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1118700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1163400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>606500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>629000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>619700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>655600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>681200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>703200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-168400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-279400</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4226,8 +4412,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,58 +4471,61 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4343,53 +4535,56 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-70900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-33000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-68600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-66200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-61000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-54500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-61000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-50700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-41200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-31600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-30500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-43500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-137500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4399,8 +4594,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,40 +4619,41 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1800</v>
       </c>
       <c r="F83" s="3">
         <v>1800</v>
       </c>
       <c r="G83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>500</v>
       </c>
       <c r="N83" s="3">
         <v>500</v>
@@ -4463,10 +4662,10 @@
         <v>500</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4477,8 +4676,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,52 +4971,55 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-49300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-37600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-26700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-40800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-50300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-31900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-24900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-30300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-21500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-17100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6000</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
@@ -4813,8 +5030,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,50 +5055,51 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4891,8 +5112,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,52 +5230,55 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E94" s="3">
         <v>96800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>22200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-83400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-429000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>7900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>78800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>44500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>32900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-313400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-316800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2600</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
@@ -5059,8 +5289,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5137,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,52 +5548,55 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E100" s="3">
         <v>6000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>13000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>16600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>56500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>344500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>274100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>152600</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
@@ -5361,8 +5607,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5417,52 +5666,55 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E102" s="3">
         <v>53500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>25200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-117100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>144500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-39200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>48400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>19800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-59800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>143900</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
@@ -5471,6 +5723,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="92">
   <si>
     <t>ALLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -748,8 +749,11 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -757,11 +761,11 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>38300</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -777,8 +781,8 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -807,8 +811,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -866,8 +873,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -925,8 +935,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,53 +961,54 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E12" s="3">
         <v>52300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>55200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>52200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>51400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>47300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>42000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>49800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>39300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>30000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>17000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>120600</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1007,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,8 +1083,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1077,11 +1097,11 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -1089,30 +1109,30 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>-400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>21300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3700</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1145,11 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,56 +1230,57 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>77700</v>
+      </c>
+      <c r="E17" s="3">
         <v>71100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>71500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>69400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>68000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>63200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>57700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>64600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>55000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>46000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>36500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>34800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>41600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>137600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,8 +1290,11 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1272,11 +1302,11 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-71100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-33200</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1292,27 +1322,27 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-46000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-36500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-34800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-41600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-137600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2600</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,8 +1352,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,8 +1378,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1354,11 +1388,11 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1374,26 +1408,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>4600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1404,8 +1438,11 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1413,11 +1450,11 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-31100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1433,27 +1470,27 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-40300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-30900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-30100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-39600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-137000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1463,8 +1500,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1474,11 +1514,11 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1486,27 +1526,27 @@
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>3400</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1522,56 +1562,59 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-78200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-70900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-33000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-68600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-66200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-61000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-54500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-61200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-50700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-41400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-31600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-30600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-43500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-137500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1581,8 +1624,11 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,8 +1638,8 @@
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1605,31 +1651,31 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-100</v>
       </c>
       <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="O24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
@@ -1640,8 +1686,11 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,56 +1748,59 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-78200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-70900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-33000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-68600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-66200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-61000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-54500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-61000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-50700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-41200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-31600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-30500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-43500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-137500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2600</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,56 +1810,59 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-78200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-70900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-33000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-68600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-66200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-61000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-54500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-61000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-50700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-41200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-31600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-30500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-43500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-137500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1817,8 +1872,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,8 +2120,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2062,11 +2132,11 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2082,26 +2152,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>-4600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2112,56 +2182,59 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-78200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-70900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-33000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-68600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-66200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-61000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-54500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-61000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-50700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-41200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-31600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-30500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-43500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-137500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,8 +2244,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,56 +2306,59 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-78200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-70900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-33000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-68600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-66200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-61000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-54500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-61000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-50700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-41200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-31600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-30500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-43500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-137500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,61 +2368,64 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2353,8 +2435,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,53 +2485,54 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E41" s="3">
         <v>223500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>236900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>183400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>158100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>280400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>135900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>175100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>161000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>112600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>92700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>92400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>83100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>143900</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2458,50 +2545,53 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>293500</v>
+      </c>
+      <c r="E42" s="3">
         <v>364200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>462700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>644600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>682900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>619300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>357000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>355400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>340300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>389800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>373400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>367000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>161100</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2517,8 +2607,11 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2540,18 +2633,18 @@
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
         <v>2400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3300</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2564,8 +2657,8 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2576,8 +2669,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2635,53 +2731,56 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E45" s="3">
         <v>14500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,53 +2793,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>502900</v>
+      </c>
+      <c r="E46" s="3">
         <v>602200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>716100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>845100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>854100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>909600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>504400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>544600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>509800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>511500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>476600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>468000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>247400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>144300</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,50 +2855,53 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>396100</v>
+      </c>
+      <c r="E47" s="3">
         <v>344300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>283900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>207900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>212500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>215500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>65000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>63200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>100700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>147800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>214600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>262000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>154000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2812,53 +2917,56 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>164600</v>
+      </c>
+      <c r="E48" s="3">
         <v>164900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>163300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>160100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>144200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>127000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>110200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>100900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>77400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>67700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>52800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>41600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>29700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3500</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2871,8 +2979,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2882,8 +2993,8 @@
       <c r="E49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -2895,29 +3006,29 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1100</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,8 +3041,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,50 +3165,53 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E52" s="3">
         <v>15300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3107,8 +3227,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,53 +3289,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1079200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1126700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1179000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1227800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1222500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1258500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>688500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>717800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>695500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>734000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>749400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>773900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>435200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>148800</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3351,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,53 +3401,54 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E57" s="3">
         <v>11000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>23500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,8 +3461,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3365,15 +3499,15 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
         <v>139600</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3389,53 +3523,56 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E59" s="3">
         <v>35000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>40000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>83900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>40000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>31800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3448,53 +3585,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E60" s="3">
         <v>46000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>54800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>94300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>50100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>40900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>26800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>33100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>33400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>29500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>159500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14700</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3507,8 +3647,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3566,53 +3709,56 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E62" s="3">
         <v>56900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>54400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>53900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>53600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>54200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>55200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>55700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>42500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>40400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>40900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>41200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>33100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2500</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3625,8 +3771,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,53 +3957,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E66" s="3">
         <v>102900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>109300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>148200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>103800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>95100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>82000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>88800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>75800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>78400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>68100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>70700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>192600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4019,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4041,13 +4209,13 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>411100</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>411100</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>411100</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,53 +4291,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-828500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-750300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-679400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-646300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-577800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-511600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-450600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-396100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-335100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-284400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-243100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-211500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-181000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-137500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4179,8 +4353,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,53 +4539,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>969900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1023800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1069800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1079600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1118700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1163400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>606500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>629000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>619700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>655600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>681200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>703200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-168400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-279400</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4415,8 +4601,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,61 +4663,64 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4538,56 +4730,59 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-78200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-70900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-33000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-68600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-66200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-61000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-54500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-61000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-50700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-41200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-31600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-30500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-43500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-137500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4597,8 +4792,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,43 +4818,44 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E83" s="3">
         <v>2000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1800</v>
       </c>
       <c r="G83" s="3">
         <v>1800</v>
       </c>
       <c r="H83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>500</v>
       </c>
       <c r="O83" s="3">
         <v>500</v>
@@ -4665,10 +4864,10 @@
         <v>500</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -4679,8 +4878,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,55 +5188,58 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-41200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-49300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-37600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-26700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-40800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-50300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-31900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-24900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-30300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-21500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-17100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
+      <c r="R89" s="3">
+        <v>0</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
@@ -5033,8 +5250,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,53 +5276,54 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5115,8 +5336,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,55 +5460,58 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E94" s="3">
         <v>24600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>96800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>22200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-83400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-429000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>7900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>78800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>44500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>32900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-313400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-316800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
@@ -5292,8 +5522,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,55 +5794,58 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E100" s="3">
         <v>3200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>13000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>16600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>56500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>344500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>274100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>152600</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
@@ -5610,8 +5856,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5669,55 +5918,58 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>53500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>25200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-117100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>144500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-39200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>48400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>19800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-59800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>143900</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
@@ -5726,6 +5978,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="92">
   <si>
     <t>ALLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,84 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
@@ -752,23 +752,26 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>38300</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -784,8 +787,8 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -814,8 +817,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -876,8 +882,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,8 +947,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,56 +974,57 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E12" s="3">
         <v>58700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>52300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>55200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>52200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>51400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>47300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>42000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>49800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>39300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>30000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>17000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>120600</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1024,8 +1037,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,8 +1102,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1100,11 +1119,11 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -1112,30 +1131,30 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>-400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>21300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3700</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1148,8 +1167,11 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1232,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,59 +1256,60 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>73900</v>
+      </c>
+      <c r="E17" s="3">
         <v>77700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>71100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>71500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>69400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>68000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>63200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>57700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>64600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>55000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>46000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>36500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>34800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>41600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>137600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,23 +1319,26 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-73800</v>
       </c>
       <c r="E18" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-71100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-33200</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1325,27 +1354,27 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-46000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-36500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-34800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-41600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-137600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2600</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1355,8 +1384,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,23 +1411,24 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,26 +1444,26 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>4600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
@@ -1441,23 +1474,26 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-70600</v>
       </c>
       <c r="E21" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-69000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-31100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1473,27 +1509,27 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-40300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-30900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-30100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-39600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-137000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2600</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1503,53 +1539,56 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>3400</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1565,59 +1604,62 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-74900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-78200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-70900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-33000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-68600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-66200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-61000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-54500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-61200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-50700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-41400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-31600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-30600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-137500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2600</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1627,8 +1669,11 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1686,8 @@
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1654,31 +1699,31 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-100</v>
       </c>
       <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="P24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
@@ -1689,8 +1734,11 @@
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,59 +1799,62 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-74900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-78200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-70900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-33000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-68600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-66200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-61000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-54500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-61000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-50700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-41200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-31600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-30500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-137500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2600</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1813,59 +1864,62 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-74900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-78200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-70900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-33000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-68600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-66200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-61000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-54500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-61000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-50700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-41200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-31600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-30500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-137500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2600</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1875,8 +1929,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1999,8 +2059,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,23 +2189,26 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2155,26 +2224,26 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>-4600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
@@ -2185,59 +2254,62 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-74900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-78200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-70900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-33000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-68600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-66200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-61000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-54500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-61000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-50700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-41200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-31600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-30500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-137500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2600</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2319,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,59 +2384,62 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-74900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-78200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-70900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-33000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-68600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-66200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-61000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-54500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-61000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-50700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-41200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-31600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-30500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-137500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2600</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,64 +2449,67 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2438,8 +2519,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,56 +2571,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>173300</v>
+      </c>
+      <c r="E41" s="3">
         <v>190000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>223500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>236900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>183400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>158100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>280400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>135900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>175100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>161000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>112600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>92700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>92400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>83100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>143900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2548,53 +2634,56 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E42" s="3">
         <v>293500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>364200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>462700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>644600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>682900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>619300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>357000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>355400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>340300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>389800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>373400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>367000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>161100</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,44 +2699,47 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3">
         <v>2400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3300</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2660,8 +2752,8 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2672,8 +2764,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2734,56 +2829,59 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E45" s="3">
         <v>19400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,56 +2894,59 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>471300</v>
+      </c>
+      <c r="E46" s="3">
         <v>502900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>602200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>716100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>845100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>854100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>909600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>504400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>544600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>509800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>511500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>476600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>468000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>247400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>144300</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2858,53 +2959,56 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>370200</v>
+      </c>
+      <c r="E47" s="3">
         <v>396100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>344300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>283900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>207900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>212500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>215500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>65000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>63200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>100700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>147800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>214600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>262000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>154000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2920,56 +3024,59 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E48" s="3">
         <v>164600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>164900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>163300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>160100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>144200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>127000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>110200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>100900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>77400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>67700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>52800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>41600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3500</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,19 +3089,22 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -3009,29 +3119,29 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1100</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3044,8 +3154,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,53 +3284,56 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E52" s="3">
         <v>15600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3230,8 +3349,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,56 +3414,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1038600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1079200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1126700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1179000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1227800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1222500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1258500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>688500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>717800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>695500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>734000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>749400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>773900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>435200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>148800</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3479,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,56 +3531,57 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E57" s="3">
         <v>11500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>23500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3464,8 +3594,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3502,15 +3635,15 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3">
         <v>139600</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3526,56 +3659,59 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E59" s="3">
         <v>42000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>35000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>40000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>83900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>40000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>31800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>25300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3588,56 +3724,59 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E60" s="3">
         <v>53500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>46000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>54800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>94300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>50100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>40900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>26800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>33100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>33400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>38000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>27300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>29500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>159500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14700</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3789,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3712,56 +3854,59 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E62" s="3">
         <v>55800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>56900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>54400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>53900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>53600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>54200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>55200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>55700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>42500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>40400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>40900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>41200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>33100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2500</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3774,8 +3919,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,56 +4114,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>122200</v>
+      </c>
+      <c r="E66" s="3">
         <v>109300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>102900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>109300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>148200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>103800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>95100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>82000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>88800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>75800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>78400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>68100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>70700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>192600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4022,8 +4179,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4212,13 +4379,13 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>411100</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>411100</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>411100</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -4232,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,56 +4464,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-903300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-828500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-750300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-679400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-646300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-577800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-511600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-450600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-396100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-335100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-284400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-243100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-211500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-181000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-137500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4356,8 +4529,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,56 +4724,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>916400</v>
+      </c>
+      <c r="E76" s="3">
         <v>969900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1023800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1069800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1079600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1118700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1163400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>606500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>629000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>619700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>655600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>681200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>703200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-168400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-279400</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4604,8 +4789,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,64 +4854,67 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4733,59 +4924,62 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-74900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-78200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-70900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-33000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-68600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-66200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-61000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-54500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-61000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-50700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-41200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-31600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-30500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-137500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2600</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4795,8 +4989,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,46 +5016,47 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E83" s="3">
         <v>2300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1800</v>
       </c>
       <c r="H83" s="3">
         <v>1800</v>
       </c>
       <c r="I83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J83" s="3">
         <v>1900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>700</v>
-      </c>
-      <c r="O83" s="3">
-        <v>500</v>
       </c>
       <c r="P83" s="3">
         <v>500</v>
@@ -4867,10 +5065,10 @@
         <v>500</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
@@ -4881,8 +5079,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,58 +5404,61 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-48900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-41200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-49300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-37600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-26700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-40800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-50300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-31900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-24900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-30300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-21500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6000</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
+      <c r="S89" s="3">
+        <v>0</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
@@ -5253,8 +5469,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,56 +5496,57 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5339,8 +5559,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,58 +5689,61 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E94" s="3">
         <v>13000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>24600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>96800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>22200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-83400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-429000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>78800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>44500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>32900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-313400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-316800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2600</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
@@ -5525,8 +5754,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5781,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +5844,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,58 +6039,61 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>13000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>16600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>56500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>344500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>274100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>152600</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
@@ -5859,8 +6104,11 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5921,58 +6169,61 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-33500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>53500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>25200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-117100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>144500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-39200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>48400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-59800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>143900</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
+      <c r="S102" s="3">
+        <v>0</v>
       </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
@@ -5981,6 +6232,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="92">
   <si>
     <t>ALLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,88 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
@@ -755,8 +756,11 @@
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -764,17 +768,17 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>38300</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -790,8 +794,8 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -820,8 +824,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -885,8 +892,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +960,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,59 +988,60 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E12" s="3">
         <v>54000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>58700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>52300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>55200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>52200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>51400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>47300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>42000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>49800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>39300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>30000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>20700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>17000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>120600</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1040,8 +1054,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1105,8 +1122,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1122,11 +1142,11 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -1134,30 +1154,30 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>-400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>21300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3700</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1170,8 +1190,11 @@
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1235,8 +1258,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1257,62 +1283,63 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>80100</v>
+      </c>
+      <c r="E17" s="3">
         <v>73900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>77700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>71100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>71500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>69400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>68000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>63200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>57700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>64600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>55000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>46000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>36500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>34800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>41600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>137600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2600</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,26 +1349,29 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-73800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-77700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-71100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-33200</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1357,27 +1387,27 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-46000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-36500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-34800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-41600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-137600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2600</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1387,8 +1417,11 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1412,26 +1445,27 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1447,26 +1481,26 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>4600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
@@ -1477,26 +1511,29 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-76200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-70600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-75900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-69000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-31100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1512,27 +1549,27 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-40300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-30900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-30100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-39600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-137000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2600</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1542,8 +1579,11 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1568,30 +1608,30 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>3400</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1607,62 +1647,65 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-79900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-74900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-78200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-70900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-33000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-68600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-66200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-61000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-54500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-61200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-50700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-41400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-31600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-30600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-43500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-137500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2600</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1672,8 +1715,11 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1689,8 +1735,8 @@
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1702,31 +1748,31 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-100</v>
       </c>
       <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
+      <c r="T24" s="3">
+        <v>0</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
@@ -1737,8 +1783,11 @@
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1802,62 +1851,65 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-79900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-74900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-78200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-70900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-33000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-68600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-66200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-61000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-54500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-61000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-50700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-41200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-31600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-43500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-137500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2600</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,62 +1919,65 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-79900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-74900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-78200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-70900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-33000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-68600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-66200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-61000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-54500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-61000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-50700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-41200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-31600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-43500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-137500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2600</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1932,8 +1987,11 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2055,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2123,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2127,8 +2191,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2192,26 +2259,29 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2227,26 +2297,26 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>-4600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
@@ -2257,62 +2327,65 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-79900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-74900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-78200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-70900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-33000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-68600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-66200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-61000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-54500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-61000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-50700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-41200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-31600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-43500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-137500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2600</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2395,11 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2387,62 +2463,65 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-79900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-74900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-78200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-70900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-33000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-68600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-66200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-61000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-54500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-61000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-50700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-41200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-31600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-43500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-137500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2600</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,67 +2531,70 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2522,8 +2604,11 @@
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2547,8 +2632,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2572,59 +2658,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>84500</v>
+      </c>
+      <c r="E41" s="3">
         <v>173300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>190000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>223500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>236900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>183400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>158100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>280400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>135900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>175100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>161000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>112600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>92700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>92400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>83100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>143900</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2637,56 +2724,59 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>364500</v>
+      </c>
+      <c r="E42" s="3">
         <v>284000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>293500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>364200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>462700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>644600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>682900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>619300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>357000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>355400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>340300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>389800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>373400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>367000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>161100</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,8 +2792,11 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2728,21 +2821,21 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3">
         <v>2400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3300</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2755,8 +2848,8 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2767,8 +2860,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2832,59 +2928,62 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E45" s="3">
         <v>14000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,59 +2996,62 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>469700</v>
+      </c>
+      <c r="E46" s="3">
         <v>471300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>502900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>602200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>716100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>845100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>854100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>909600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>504400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>544600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>509800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>511500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>476600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>468000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>247400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>144300</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,56 +3064,59 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>298300</v>
+      </c>
+      <c r="E47" s="3">
         <v>370200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>396100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>344300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>283900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>207900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>212500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>215500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>65000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>63200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>100700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>147800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>214600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>262000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>154000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3027,59 +3132,62 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>177300</v>
+      </c>
+      <c r="E48" s="3">
         <v>181000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>164600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>164900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>163300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>160100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>144200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>127000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>110200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>100900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>77400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>67700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>52800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>41600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>29700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3500</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3092,8 +3200,11 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3122,29 +3233,29 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1100</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3157,8 +3268,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3222,8 +3336,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3287,56 +3404,59 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E52" s="3">
         <v>16100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3352,8 +3472,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3417,59 +3540,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>964600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1038600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1079200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1126700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1179000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1227800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1222500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1258500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>688500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>717800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>695500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>734000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>749400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>773900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>435200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>148800</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3482,8 +3608,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3507,8 +3636,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3532,59 +3662,60 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E57" s="3">
         <v>10300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>23500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3597,8 +3728,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3638,15 +3772,15 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3">
         <v>139600</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,59 +3796,62 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E59" s="3">
         <v>37900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>42000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>35000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>40000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>83900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>40000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>31800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>25300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3727,59 +3864,62 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E60" s="3">
         <v>48200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>53500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>46000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>54800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>94300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>50100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>40900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>33100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>33400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>38000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>27300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>29500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>159500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14700</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3792,8 +3932,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3857,59 +4000,62 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E62" s="3">
         <v>74100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>55800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>56900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>54400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>53900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>53600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>54200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>55200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>55700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>42500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>40400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>40900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>41200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>33100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2500</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3922,8 +4068,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3987,8 +4136,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4052,8 +4204,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4117,59 +4272,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E66" s="3">
         <v>122200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>109300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>102900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>109300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>148200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>103800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>95100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>82000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>88800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>75800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>78400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>68100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>70700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>192600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4182,8 +4340,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4207,8 +4368,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4434,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4337,8 +4502,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4382,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
-        <v>411100</v>
+        <v>0</v>
       </c>
       <c r="R70" s="3">
         <v>411100</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
+        <v>411100</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
@@ -4402,8 +4570,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4467,59 +4638,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-983200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-903300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-828500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-750300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-679400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-646300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-577800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-511600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-450600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-396100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-335100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-284400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-243100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-211500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-181000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-137500</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4532,8 +4706,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4597,8 +4774,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4662,8 +4842,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4727,59 +4910,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>855200</v>
+      </c>
+      <c r="E76" s="3">
         <v>916400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>969900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1023800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1069800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1079600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1118700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1163400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>606500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>629000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>619700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>655600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>681200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>703200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-168400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-279400</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4792,8 +4978,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4857,67 +5046,70 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4927,62 +5119,65 @@
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-79900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-74900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-78200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-70900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-33000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-68600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-66200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-61000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-54500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-61000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-50700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-41200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-31600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-43500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-137500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2600</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4992,8 +5187,11 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5017,49 +5215,50 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E83" s="3">
         <v>4200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1800</v>
       </c>
       <c r="I83" s="3">
         <v>1800</v>
       </c>
       <c r="J83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K83" s="3">
         <v>1900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>700</v>
-      </c>
-      <c r="P83" s="3">
-        <v>500</v>
       </c>
       <c r="Q83" s="3">
         <v>500</v>
@@ -5068,10 +5267,10 @@
         <v>500</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
@@ -5082,8 +5281,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5147,8 +5349,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5212,8 +5417,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5277,8 +5485,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5342,8 +5553,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5407,61 +5621,64 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-45400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-48900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-41200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-49300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-37600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-26700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-40800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-50300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-31900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-24900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-30300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-17100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6000</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
+      <c r="T89" s="3">
+        <v>0</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
@@ -5472,8 +5689,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5497,59 +5717,60 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-17400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5562,8 +5783,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5627,8 +5851,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5692,61 +5919,64 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E94" s="3">
         <v>29300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>13000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>24600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>96800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>22200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-83400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-429000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>7900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>78800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>44500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>32900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-313400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-316800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2600</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
@@ -5757,8 +5987,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5782,8 +6015,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5847,8 +6081,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5912,8 +6149,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5977,8 +6217,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6042,61 +6285,64 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>13000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>16600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>56500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>344500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>274100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>152600</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
@@ -6107,8 +6353,11 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6172,61 +6421,64 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-88800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-33500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>53500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>25200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-117100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>144500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-39200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>48400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>19800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-59800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>143900</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
+      <c r="T102" s="3">
+        <v>0</v>
       </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
@@ -6235,6 +6487,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="92">
   <si>
     <t>ALLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,92 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
@@ -759,8 +760,11 @@
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -771,17 +775,17 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>38300</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,8 +801,8 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -827,8 +831,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -895,8 +902,11 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +973,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,62 +1002,63 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E12" s="3">
         <v>60200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>54000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>58700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>52300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>55200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>52200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>51400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>47300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>42000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>49800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>39300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>30000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>20700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>17000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>120600</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1057,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1125,8 +1142,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1145,11 +1165,11 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1157,30 +1177,30 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>-400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>21300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3700</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1193,8 +1213,11 @@
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1261,8 +1284,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,65 +1310,66 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E17" s="3">
         <v>80100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>73900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>77700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>71100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>71500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>69400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>68000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>57700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>64600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>55000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>46000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>36500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>34800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>41600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>137600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2600</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,29 +1379,32 @@
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-76600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-80000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-73800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-77700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-71100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-33200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1390,27 +1420,27 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-46000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-36500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-34800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-41600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-137600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2600</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1420,8 +1450,11 @@
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1446,29 +1479,30 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1484,26 +1518,26 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
         <v>4600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
+      <c r="U20" s="3">
+        <v>0</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
@@ -1514,29 +1548,32 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-71100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-76200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-70600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-75900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-69000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-31100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1552,27 +1589,27 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-40300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-30900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-30100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-39600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-137000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2600</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1582,8 +1619,11 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1611,30 +1651,30 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>3400</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,65 +1690,68 @@
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-79900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-74900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-78200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-70900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-33000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-68600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-66200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-61000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-54500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-61200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-50700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-41400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-31600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-30600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-43500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-137500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2600</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1718,8 +1761,11 @@
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1738,8 +1784,8 @@
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1751,31 +1797,31 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-100</v>
       </c>
       <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="R24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
+      <c r="U24" s="3">
+        <v>0</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
@@ -1786,8 +1832,11 @@
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1854,65 +1903,68 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-79900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-74900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-78200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-70900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-33000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-68600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-66200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-61000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-54500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-61000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-50700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-41200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-31600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-30500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-43500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-137500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2600</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,65 +1974,68 @@
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-79900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-74900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-78200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-70900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-33000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-68600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-66200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-61000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-54500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-61000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-50700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-41200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-31600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-30500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-43500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-137500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2600</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,8 +2045,11 @@
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2058,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2126,8 +2187,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2262,29 +2329,32 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2300,26 +2370,26 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
         <v>-4600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
+      <c r="U32" s="3">
+        <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
@@ -2330,65 +2400,68 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-79900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-74900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-78200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-70900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-33000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-68600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-66200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-61000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-54500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-61000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-50700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-41200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-31600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-30500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-43500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-137500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2600</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2398,8 +2471,11 @@
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2466,65 +2542,68 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-79900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-74900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-78200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-70900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-33000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-68600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-66200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-61000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-54500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-61000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-50700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-41200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-31600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-30500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-43500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-137500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2600</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2534,70 +2613,73 @@
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2607,8 +2689,11 @@
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2633,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2659,62 +2745,63 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E41" s="3">
         <v>84500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>173300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>190000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>223500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>236900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>183400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>158100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>280400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>135900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>175100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>161000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>112600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>92700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>92400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>83100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>143900</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2727,59 +2814,62 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>394500</v>
+      </c>
+      <c r="E42" s="3">
         <v>364500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>284000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>293500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>364200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>462700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>644600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>682900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>619300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>357000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>355400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>340300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>389800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>373400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>367000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>161100</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2885,11 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2824,21 +2917,21 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3">
         <v>2400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3300</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2851,8 +2944,8 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -2863,8 +2956,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2931,62 +3027,65 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E45" s="3">
         <v>20700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2999,62 +3098,65 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E46" s="3">
         <v>469700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>471300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>502900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>602200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>716100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>845100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>854100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>909600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>504400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>544600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>509800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>511500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>476600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>468000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>247400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>144300</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3067,59 +3169,62 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>211300</v>
+      </c>
+      <c r="E47" s="3">
         <v>298300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>370200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>396100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>344300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>283900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>207900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>212500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>215500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>65000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>63200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>100700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>147800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>214600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>262000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>154000</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3135,62 +3240,65 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>204100</v>
+      </c>
+      <c r="E48" s="3">
         <v>177300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>181000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>164600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>164900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>163300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>160100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>144200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>127000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>110200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>100900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>77400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>67700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>52800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>41600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>29700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3500</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3203,8 +3311,11 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3236,29 +3347,29 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
         <v>200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1100</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3271,8 +3382,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3407,59 +3524,62 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E52" s="3">
         <v>19300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3200</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3595,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,62 +3666,65 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>947600</v>
+      </c>
+      <c r="E54" s="3">
         <v>964600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1038600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1079200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1126700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1179000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1227800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1222500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1258500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>688500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>717800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>695500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>734000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>749400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>773900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>435200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>148800</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3611,8 +3737,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3637,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3663,62 +3793,63 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E57" s="3">
         <v>8700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>23500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1300</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3731,8 +3862,11 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3775,15 +3909,15 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3">
         <v>139600</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3799,62 +3933,65 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E59" s="3">
         <v>28200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>37900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>35000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>40000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>83900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>40000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>31800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>25300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13500</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,62 +4004,65 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E60" s="3">
         <v>36900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>48200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>53500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>46000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>54800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>94300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>50100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>40900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>33100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>33400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>38000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>27300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>29500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>159500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14700</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3935,8 +4075,11 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4003,62 +4146,65 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E62" s="3">
         <v>72500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>74100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>55800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>56900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>54400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>53900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>53600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>54200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>55200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>55700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>42500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>40400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>40900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>41200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>33100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2500</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4071,8 +4217,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4139,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4207,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4275,62 +4430,65 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>145700</v>
+      </c>
+      <c r="E66" s="3">
         <v>109400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>122200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>109300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>102900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>109300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>148200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>103800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>95100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>82000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>88800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>75800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>78400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>68100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>70700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>192600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4343,8 +4501,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4369,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4437,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4505,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4553,13 +4721,13 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
-        <v>411100</v>
+        <v>0</v>
       </c>
       <c r="S70" s="3">
         <v>411100</v>
       </c>
       <c r="T70" s="3">
-        <v>0</v>
+        <v>411100</v>
       </c>
       <c r="U70" s="3">
         <v>0</v>
@@ -4573,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4641,62 +4812,65 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1058000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-983200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-903300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-828500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-750300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-679400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-646300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-577800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-511600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-450600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-396100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-335100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-284400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-243100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-211500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-181000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-137500</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4709,8 +4883,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4777,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4845,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4913,62 +5096,65 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>801900</v>
+      </c>
+      <c r="E76" s="3">
         <v>855200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>916400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>969900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1023800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1069800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1079600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1118700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1163400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>606500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>629000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>619700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>655600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>681200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>703200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-168400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-279400</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4981,8 +5167,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5049,70 +5238,73 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5122,65 +5314,68 @@
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-79900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-74900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-78200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-70900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-33000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-68600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-66200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-61000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-54500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-61000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-50700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-41200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-31600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-30500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-43500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-137500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2600</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5190,8 +5385,11 @@
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5216,8 +5414,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5225,43 +5424,43 @@
         <v>3700</v>
       </c>
       <c r="E83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F83" s="3">
         <v>4200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1800</v>
       </c>
       <c r="J83" s="3">
         <v>1800</v>
       </c>
       <c r="K83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L83" s="3">
         <v>1900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>700</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>500</v>
       </c>
       <c r="R83" s="3">
         <v>500</v>
@@ -5270,10 +5469,10 @@
         <v>500</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
@@ -5284,8 +5483,11 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5352,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5420,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5488,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5556,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5624,64 +5838,67 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-68200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-45400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-48900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-41200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-49300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-37600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-26700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-40800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-50300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-31900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-24900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-30300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-21500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-17100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6000</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
+      <c r="U89" s="3">
+        <v>0</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
@@ -5692,8 +5909,11 @@
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5718,62 +5938,63 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-17400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5786,8 +6007,11 @@
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5854,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5922,64 +6149,67 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>29300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>13000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>24600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>96800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>22200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-83400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-429000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>7900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>78800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>44500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>32900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-313400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-316800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2600</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
@@ -5990,8 +6220,11 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6016,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6084,8 +6318,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6152,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6220,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6288,64 +6531,67 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>13000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>16600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>56500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>344500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>274100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>152600</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
+      <c r="U100" s="3">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
@@ -6356,8 +6602,11 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6424,64 +6673,67 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-88800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-33500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>53500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>25200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-117100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>144500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-39200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>48400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-59800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>143900</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
+      <c r="U102" s="3">
+        <v>0</v>
       </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
@@ -6490,6 +6742,9 @@
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="92">
   <si>
     <t>ALLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,96 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
@@ -763,13 +764,16 @@
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -778,17 +782,17 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>38300</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -804,8 +808,8 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -834,8 +838,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -905,8 +912,11 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +986,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1003,65 +1016,66 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E12" s="3">
         <v>57200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>60200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>54000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>58700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>52300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>55200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>52200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>51400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>47300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>42000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>49800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>39300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>30000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>20700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>17000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>120600</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1074,8 +1088,11 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,8 +1162,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1168,11 +1188,11 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -1180,30 +1200,30 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>-400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>21300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3700</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1216,8 +1236,11 @@
       <c r="Y14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,8 +1310,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,68 +1337,69 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E17" s="3">
         <v>76700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>80100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>73900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>77700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>71100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>71500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>69400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>68000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>57700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>64600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>55000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>46000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>36500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>34800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>41600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>137600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2600</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,32 +1409,35 @@
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-76600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-80000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-73800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-77700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-71100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-33200</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1423,27 +1453,27 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-46000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-36500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-34800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-41600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-137600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2600</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1453,8 +1483,11 @@
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,32 +1513,33 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1521,26 +1555,26 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
         <v>4600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
+      <c r="V20" s="3">
+        <v>0</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
@@ -1551,32 +1585,35 @@
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-71100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-76200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-70600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-75900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-69000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-31100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1592,27 +1629,27 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-40300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-30900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-30100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-39600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-137000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2600</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1622,8 +1659,11 @@
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1654,30 +1694,30 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>3400</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1693,68 +1733,71 @@
       <c r="Y22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-83100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-74800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-79900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-74900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-78200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-70900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-33000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-68600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-66200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-61000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-54500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-61200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-50700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-41400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-31600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-30600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-43500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-137500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2600</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,8 +1807,11 @@
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1787,8 +1833,8 @@
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1800,31 +1846,31 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>-100</v>
       </c>
       <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="S24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
@@ -1835,8 +1881,11 @@
       <c r="Y24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,68 +1955,71 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-83100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-74800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-79900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-74900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-78200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-70900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-33000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-68600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-66200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-61000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-54500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-61000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-50700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-41200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-31600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-30500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-43500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-137500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2600</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1977,68 +2029,71 @@
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-83100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-74800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-79900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-74900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-78200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-70900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-33000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-68600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-66200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-61000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-54500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-61000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-50700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-41200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-31600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-30500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-43500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-137500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2600</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,8 +2103,11 @@
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,8 +2177,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2190,8 +2251,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,32 +2399,35 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2373,26 +2443,26 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
+      <c r="V32" s="3">
+        <v>0</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
@@ -2403,68 +2473,71 @@
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-83100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-74800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-79900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-74900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-78200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-70900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-33000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-68600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-66200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-61000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-54500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-61000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-50700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-41200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-31600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-30500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-43500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-137500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2600</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2474,8 +2547,11 @@
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,68 +2621,71 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-83100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-74800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-79900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-74900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-78200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-70900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-33000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-68600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-66200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-61000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-54500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-61000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-50700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-41200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-31600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-30500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-43500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-137500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2600</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,73 +2695,76 @@
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2692,8 +2774,11 @@
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,65 +2832,66 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E41" s="3">
         <v>96000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>84500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>173300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>190000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>223500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>236900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>183400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>158100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>280400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>135900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>175100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>161000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>112600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>92700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>92400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>83100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>143900</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,62 +2904,65 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>477900</v>
+      </c>
+      <c r="E42" s="3">
         <v>394500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>364500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>284000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>293500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>364200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>462700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>644600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>682900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>619300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>357000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>355400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>340300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>389800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>373400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>367000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>161100</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,8 +2978,11 @@
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2920,21 +3013,21 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3">
         <v>2400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3300</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2947,8 +3040,8 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -2959,8 +3052,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3030,65 +3126,68 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E45" s="3">
         <v>22500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3101,65 +3200,68 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>569100</v>
+      </c>
+      <c r="E46" s="3">
         <v>513000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>469700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>471300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>502900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>602200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>716100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>845100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>854100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>909600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>504400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>544600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>509800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>511500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>476600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>468000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>247400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>144300</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3172,62 +3274,65 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>99200</v>
+      </c>
+      <c r="E47" s="3">
         <v>211300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>298300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>370200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>396100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>344300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>283900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>207900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>212500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>215500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>65000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>63200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>100700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>147800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>214600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>262000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>154000</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3243,65 +3348,68 @@
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>199700</v>
+      </c>
+      <c r="E48" s="3">
         <v>204100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>177300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>181000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>164600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>164900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>163300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>160100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>144200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>127000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>110200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>100900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>77400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>67700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>52800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>41600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>29700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3500</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3314,8 +3422,11 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3350,29 +3461,29 @@
         <v>0</v>
       </c>
       <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
         <v>200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1100</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3385,8 +3496,11 @@
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,62 +3644,65 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E52" s="3">
         <v>19200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3200</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3598,8 +3718,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,65 +3792,68 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>887600</v>
+      </c>
+      <c r="E54" s="3">
         <v>947600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>964600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1038600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1079200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1126700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1179000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1227800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1222500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1258500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>688500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>717800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>695500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>734000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>749400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>773900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>435200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>148800</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3740,8 +3866,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,65 +3924,66 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E57" s="3">
         <v>9700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>23500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1300</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3865,8 +3996,11 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3912,15 +4046,15 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3">
         <v>139600</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,65 +4070,68 @@
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E59" s="3">
         <v>35200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>37900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>42000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>35000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>40000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>83900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>40000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>31800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>25300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13500</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4007,65 +4144,68 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E60" s="3">
         <v>44900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>36900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>48200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>53500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>46000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>54800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>94300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>50100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>40900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>33100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>33400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>38000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>27300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>29500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>159500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14700</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4078,8 +4218,11 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4149,65 +4292,68 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E62" s="3">
         <v>100800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>72500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>74100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>55800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>56900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>54400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>53900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>53600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>54200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>55200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>55700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>42500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>40400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>40900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>41200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>33100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2500</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,8 +4366,11 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,65 +4588,68 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>147600</v>
+      </c>
+      <c r="E66" s="3">
         <v>145700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>109400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>122200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>109300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>102900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>109300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>148200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>103800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>95100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>82000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>88800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>75800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>78400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>68100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>70700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>192600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4504,8 +4662,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4838,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4724,13 +4892,13 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
-        <v>411100</v>
+        <v>0</v>
       </c>
       <c r="T70" s="3">
         <v>411100</v>
       </c>
       <c r="U70" s="3">
-        <v>0</v>
+        <v>411100</v>
       </c>
       <c r="V70" s="3">
         <v>0</v>
@@ -4744,8 +4912,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,65 +4986,68 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1141100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1058000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-983200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-903300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-828500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-750300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-679400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-646300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-577800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-511600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-450600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-396100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-335100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-284400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-243100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-211500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-181000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-137500</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4886,8 +5060,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,65 +5282,68 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>740000</v>
+      </c>
+      <c r="E76" s="3">
         <v>801900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>855200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>916400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>969900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1023800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1069800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1079600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1118700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1163400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>606500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>629000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>619700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>655600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>681200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>703200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-168400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-279400</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5170,8 +5356,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,73 +5430,76 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5317,68 +5509,71 @@
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-83100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-74800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-79900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-74900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-78200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-70900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-33000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-68600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-66200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-61000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-54500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-61000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-50700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-41200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-31600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-30500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-43500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-137500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2600</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5388,8 +5583,11 @@
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,55 +5613,56 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="E83" s="3">
         <v>3700</v>
       </c>
       <c r="F83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G83" s="3">
         <v>4200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1800</v>
       </c>
       <c r="K83" s="3">
         <v>1800</v>
       </c>
       <c r="L83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M83" s="3">
         <v>1900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>700</v>
-      </c>
-      <c r="R83" s="3">
-        <v>500</v>
       </c>
       <c r="S83" s="3">
         <v>500</v>
@@ -5472,10 +5671,10 @@
         <v>500</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
@@ -5486,8 +5685,11 @@
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,67 +6055,70 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-42500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-68200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-45400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-48900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-41200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-49300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-37600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-26700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-40800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-50300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-31900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-24900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-30300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-21500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-17100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6000</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
+      <c r="V89" s="3">
+        <v>0</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
@@ -5912,8 +6129,11 @@
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,65 +6159,66 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-500</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6010,8 +6231,11 @@
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,67 +6379,70 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E94" s="3">
         <v>54000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>29300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>13000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>24600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>96800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>22200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-83400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-429000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>7900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>78800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>44500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>32900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-313400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-316800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2600</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
@@ -6223,8 +6453,11 @@
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6483,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6321,8 +6555,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,67 +6777,70 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>13000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>16600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>56500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>344500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>274100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>152600</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
+      <c r="V100" s="3">
+        <v>0</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
@@ -6605,8 +6851,11 @@
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6676,67 +6925,70 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E102" s="3">
         <v>11500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-88800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-33500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>53500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>25200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-117100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>144500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-39200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>48400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>19800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>9700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-59800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>143900</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
+      <c r="V102" s="3">
+        <v>0</v>
       </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
@@ -6745,6 +6997,9 @@
         <v>3</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="92">
   <si>
     <t>ALLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,99 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
@@ -767,8 +767,11 @@
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,7 +779,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -785,17 +788,17 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>38300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -811,8 +814,8 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -841,8 +844,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -915,8 +921,11 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,8 +998,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1017,68 +1029,69 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E12" s="3">
         <v>63600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>57200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>60200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>54000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>58700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>52300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>55200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>52200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>51400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>47300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>42000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>49800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>39300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>30000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>20700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>17000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>120600</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1091,8 +1104,11 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1165,8 +1181,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1191,11 +1210,11 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1203,30 +1222,30 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
         <v>-400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>21300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3700</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,8 +1258,11 @@
       <c r="Z14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1313,8 +1335,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,71 +1363,72 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>96400</v>
+      </c>
+      <c r="E17" s="3">
         <v>82500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>76700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>80100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>73900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>77700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>71100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>71500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>69400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>68000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>63200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>57700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>64600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>55000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>46000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>36500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>34800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>41600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>137600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2600</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1438,11 @@
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1421,26 +1450,26 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-82500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-76600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-80000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-73800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-77700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-71100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-33200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1456,27 +1485,27 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>-46000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-36500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-34800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-41600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-137600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2600</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1486,8 +1515,11 @@
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1514,8 +1546,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1523,26 +1556,26 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,26 +1591,26 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
         <v>4600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
+      <c r="W20" s="3">
+        <v>0</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
@@ -1588,8 +1621,11 @@
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1597,26 +1633,26 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-79300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-71100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-76200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-70600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-75900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-69000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-31100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1632,27 +1668,27 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-40300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-30900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-30100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-39600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-137000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2600</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1662,8 +1698,11 @@
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1697,30 +1736,30 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>3400</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1736,71 +1775,74 @@
       <c r="Z22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-94800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-83100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-74800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-79900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-74900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-78200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-70900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-33000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-68600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-66200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-61000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-54500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-61200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-50700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-41400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-31600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-30600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-43500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-137500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2600</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +1852,11 @@
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1881,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1849,31 +1894,31 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-100</v>
       </c>
       <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="T24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
+      <c r="W24" s="3">
+        <v>0</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>3</v>
@@ -1884,8 +1929,11 @@
       <c r="Z24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1958,71 +2006,74 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-94800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-83100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-74800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-79900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-74900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-78200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-70900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-33000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-68600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-66200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-61000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-54500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-61000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-50700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-41200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-31600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-30500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-43500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-137500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2600</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2032,71 +2083,74 @@
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-94800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-83100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-74800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-79900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-74900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-78200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-70900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-33000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-68600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-66200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-61000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-54500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-61000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-50700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-41200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-31600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-30500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-43500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-137500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2600</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2106,8 +2160,11 @@
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2180,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2254,8 +2314,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,8 +2468,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2411,26 +2480,26 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2446,26 +2515,26 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
         <v>-4600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
+      <c r="W32" s="3">
+        <v>0</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
@@ -2476,71 +2545,74 @@
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-94800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-83100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-74800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-79900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-74900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-78200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-70900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-33000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-68600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-66200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-61000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-54500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-61000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-50700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-41200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-31600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-30500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-43500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-137500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2600</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2550,8 +2622,11 @@
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,71 +2699,74 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-94800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-83100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-74800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-79900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-74900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-78200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-70900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-33000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-68600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-66200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-61000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-54500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-61000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-50700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-41200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-31600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-30500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-43500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-137500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2600</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2698,76 +2776,79 @@
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2777,8 +2858,11 @@
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,68 +2918,69 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E41" s="3">
         <v>74400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>96000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>84500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>173300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>190000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>223500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>236900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>183400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>158100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>280400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>135900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>175100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>161000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>112600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>92700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>92400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>83100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>143900</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,65 +2993,68 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>455400</v>
+      </c>
+      <c r="E42" s="3">
         <v>477900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>394500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>364500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>284000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>293500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>364200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>462700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>644600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>682900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>619300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>357000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>355400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>340300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>389800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>373400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>367000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>161100</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,8 +3070,11 @@
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3016,21 +3108,21 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3">
         <v>2400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3300</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3043,8 +3135,8 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
+      <c r="W43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -3055,8 +3147,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3129,68 +3224,71 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E45" s="3">
         <v>16800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3203,68 +3301,71 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>528800</v>
+      </c>
+      <c r="E46" s="3">
         <v>569100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>513000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>469700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>471300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>502900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>602200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>716100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>845100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>854100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>909600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>504400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>544600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>509800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>511500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>476600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>468000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>247400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>144300</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3277,65 +3378,68 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E47" s="3">
         <v>99200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>211300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>298300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>370200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>396100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>344300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>283900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>207900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>212500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>215500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>65000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>63200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>100700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>147800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>214600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>262000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>154000</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3351,68 +3455,71 @@
       <c r="Z47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>196400</v>
+      </c>
+      <c r="E48" s="3">
         <v>199700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>204100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>177300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>181000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>164600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>164900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>163300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>160100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>144200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>127000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>110200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>100900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>77400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>67700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>52800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>41600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>29700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3500</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3425,8 +3532,11 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3464,29 +3574,29 @@
         <v>0</v>
       </c>
       <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <v>200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1100</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3499,8 +3609,11 @@
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,65 +3763,68 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E52" s="3">
         <v>19700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3200</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3721,8 +3840,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,68 +3917,71 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>817100</v>
+      </c>
+      <c r="E54" s="3">
         <v>887600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>947600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>964600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1038600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1079200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1126700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1179000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1227800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1222500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1258500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>688500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>717800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>695500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>734000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>749400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>773900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>435200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>148800</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +3994,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,68 +4054,69 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E57" s="3">
         <v>11000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>23500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1300</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3999,8 +4129,11 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4049,15 +4182,15 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3">
         <v>139600</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4073,68 +4206,71 @@
       <c r="Z58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E59" s="3">
         <v>37800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>35200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>37900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>42000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>35000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>40000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>83900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>40000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>31800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>23800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>25300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>16800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13500</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4147,68 +4283,71 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E60" s="3">
         <v>48900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>44900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>48200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>53500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>46000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>54800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>94300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>50100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>40900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>33100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>33400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>38000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>27300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>29500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>159500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14700</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4221,8 +4360,11 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4295,68 +4437,71 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>96700</v>
+      </c>
+      <c r="E62" s="3">
         <v>98700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>100800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>72500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>74100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>55800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>56900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>54400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>53900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>53600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>54200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>55200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>55700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>42500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>40400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>40900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>41200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>33100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2500</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4369,8 +4514,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4517,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,68 +4745,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>151200</v>
+      </c>
+      <c r="E66" s="3">
         <v>147600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>145700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>109400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>122200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>109300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>102900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>109300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>148200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>103800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>95100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>82000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>88800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>75800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>78400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>68100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>70700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>192600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17200</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4665,8 +4822,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4895,13 +5062,13 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
-        <v>411100</v>
+        <v>0</v>
       </c>
       <c r="U70" s="3">
         <v>411100</v>
       </c>
       <c r="V70" s="3">
-        <v>0</v>
+        <v>411100</v>
       </c>
       <c r="W70" s="3">
         <v>0</v>
@@ -4915,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,68 +5159,71 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1236000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1141100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1058000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-983200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-903300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-828500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-750300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-679400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-646300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-577800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-511600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-450600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-396100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-335100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-284400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-243100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-211500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-181000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-137500</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5063,8 +5236,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,68 +5467,71 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>665900</v>
+      </c>
+      <c r="E76" s="3">
         <v>740000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>801900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>855200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>916400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>969900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1023800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1069800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1079600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1118700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1163400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>606500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>629000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>619700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>655600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>681200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>703200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-168400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-279400</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5359,8 +5544,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,76 +5621,79 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5512,71 +5703,74 @@
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-94800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-83100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-74800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-79900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-74900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-78200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-70900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-33000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-68600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-66200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-61000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-54500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-61000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-50700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-41200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-31600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-30500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-43500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-137500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2600</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5586,8 +5780,11 @@
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,58 +5811,59 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E83" s="3">
         <v>3900</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3700</v>
       </c>
       <c r="F83" s="3">
         <v>3700</v>
       </c>
       <c r="G83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H83" s="3">
         <v>4200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1800</v>
       </c>
       <c r="L83" s="3">
         <v>1800</v>
       </c>
       <c r="M83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N83" s="3">
         <v>1900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>700</v>
-      </c>
-      <c r="S83" s="3">
-        <v>500</v>
       </c>
       <c r="T83" s="3">
         <v>500</v>
@@ -5674,10 +5872,10 @@
         <v>500</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
@@ -5688,8 +5886,11 @@
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,70 +6271,73 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-47700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-42500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-68200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-45400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-48900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-41200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-49300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-37600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-26700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-40800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-50300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-31900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-24900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-30300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-21500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-17100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6000</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
+      <c r="W89" s="3">
+        <v>0</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
@@ -6132,8 +6348,11 @@
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,68 +6379,69 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6234,8 +6454,11 @@
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,70 +6608,73 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E94" s="3">
         <v>24900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>54000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>29300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>13000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>24600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>96800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>22200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-83400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-429000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>7900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>78800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>44500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>32900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-313400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-316800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2600</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
@@ -6456,8 +6685,11 @@
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,8 +6716,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6558,8 +6791,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,70 +7022,73 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>13000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>16600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>56500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>344500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>274100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>152600</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
+      <c r="W100" s="3">
+        <v>0</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
@@ -6854,8 +7099,11 @@
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6928,70 +7176,73 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-88800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-15900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-33500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>53500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>25200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-117100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>144500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-39200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>48400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>19800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>9700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-59800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>143900</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
+      <c r="W102" s="3">
+        <v>0</v>
       </c>
       <c r="X102" s="3" t="s">
         <v>3</v>
@@ -7000,6 +7251,9 @@
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="92">
   <si>
     <t>ALLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,103 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
@@ -770,19 +771,22 @@
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
@@ -791,17 +795,17 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>38300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -817,8 +821,8 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -847,8 +851,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -924,8 +931,11 @@
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,8 +1011,11 @@
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1030,71 +1043,72 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E12" s="3">
         <v>75400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>63600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>57200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>60200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>54000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>58700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>52300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>55200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>52200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>51400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>47300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>42000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>49800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>39300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>30000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>20700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>17000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>120600</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,8 +1121,11 @@
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1184,40 +1201,43 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -1225,30 +1245,30 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>21300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3700</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,8 +1281,11 @@
       <c r="AA14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1338,8 +1361,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,74 +1390,75 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>99100</v>
+      </c>
+      <c r="E17" s="3">
         <v>96400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>82500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>76700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>80100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>73900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>77700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>71100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>71500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>69400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>68000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>63200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>57700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>64600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>55000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>46000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>36500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>34800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>41600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>137600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2600</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1441,38 +1468,41 @@
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-99000</v>
       </c>
       <c r="E18" s="3">
+        <v>-96400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-82500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-76600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-80000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-73800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-77700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-71100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-33200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1488,27 +1518,27 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
         <v>-46000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-36500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-34800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-41600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-137600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2600</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1518,8 +1548,11 @@
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,38 +1580,39 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1594,26 +1628,26 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
         <v>4600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
+      <c r="X20" s="3">
+        <v>0</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
@@ -1624,38 +1658,41 @@
       <c r="AA20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-95200</v>
       </c>
       <c r="E21" s="3">
+        <v>-91800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-79300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-71100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-76200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-70600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-75900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-69000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-31100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1671,27 +1708,27 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>-40300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-30900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-30100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-39600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-137000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2600</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1738,11 @@
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1739,30 +1779,30 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>3400</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,74 +1818,77 @@
       <c r="AA22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-98700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-94800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-83100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-74800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-79900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-74900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-78200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-70900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-33000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-68600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-66200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-61000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-54500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-61200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-50700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-41400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-31600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-30600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-43500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-137500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2600</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1855,37 +1898,40 @@
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1897,31 +1943,31 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-200</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-100</v>
       </c>
       <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="U24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>3</v>
+      <c r="X24" s="3">
+        <v>0</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>3</v>
@@ -1932,8 +1978,11 @@
       <c r="AA24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2009,74 +2058,77 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-98700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-94800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-83100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-74800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-79900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-74900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-78200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-70900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-33000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-68600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-66200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-61000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-54500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-50700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-41200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-31600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-30500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-43500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-137500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2600</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,74 +2138,77 @@
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-98700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-94800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-83100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-74800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-79900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-74900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-78200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-70900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-33000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-68600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-66200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-61000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-54500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-50700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-41200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-31600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-30500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-43500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-137500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2600</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2163,8 +2218,11 @@
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2240,8 +2298,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2317,8 +2378,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2394,8 +2458,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2471,38 +2538,41 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2518,26 +2588,26 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
         <v>-4600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
+      <c r="X32" s="3">
+        <v>0</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
@@ -2548,74 +2618,77 @@
       <c r="AA32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-98700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-94800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-83100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-74800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-79900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-74900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-78200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-70900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-33000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-68600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-66200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-61000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-54500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-50700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-41200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-31600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-30500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-43500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-137500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2600</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2625,8 +2698,11 @@
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2702,74 +2778,77 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-98700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-94800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-83100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-74800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-79900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-74900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-78200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-70900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-33000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-68600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-66200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-61000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-54500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-50700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-41200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-31600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-30500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-43500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-137500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2600</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2779,79 +2858,82 @@
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2943,11 @@
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2890,8 +2975,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2919,71 +3005,72 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E41" s="3">
         <v>61900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>74400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>96000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>84500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>173300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>190000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>223500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>236900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>183400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>158100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>280400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>135900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>175100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>161000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>112600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>92700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>92400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>83100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>143900</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2996,68 +3083,71 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>361300</v>
+      </c>
+      <c r="E42" s="3">
         <v>455400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>477900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>394500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>364500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>284000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>293500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>364200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>462700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>644600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>682900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>619300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>357000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>355400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>340300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>389800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>373400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>367000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>161100</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3073,8 +3163,11 @@
       <c r="AA42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3111,21 +3204,21 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3">
         <v>2400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3300</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3138,8 +3231,8 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
+      <c r="X43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
@@ -3150,8 +3243,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3227,71 +3323,74 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E45" s="3">
         <v>11500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3304,71 +3403,74 @@
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>481500</v>
+      </c>
+      <c r="E46" s="3">
         <v>528800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>569100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>513000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>469700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>471300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>502900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>602200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>716100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>845100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>854100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>909600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>504400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>544600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>509800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>511500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>476600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>468000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>247400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>144300</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,68 +3483,71 @@
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E47" s="3">
         <v>72000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>99200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>211300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>298300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>370200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>396100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>344300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>283900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>207900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>212500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>215500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>65000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>63200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>100700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>147800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>214600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>262000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>154000</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3458,71 +3563,74 @@
       <c r="AA47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>191800</v>
+      </c>
+      <c r="E48" s="3">
         <v>196400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>199700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>204100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>177300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>181000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>164600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>164900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>163300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>160100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>144200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>127000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>110200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>100900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>77400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>67700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>52800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>41600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>29700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3500</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3535,8 +3643,11 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3577,29 +3688,29 @@
         <v>0</v>
       </c>
       <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
         <v>200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1100</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3612,8 +3723,11 @@
       <c r="AA49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3689,8 +3803,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3766,68 +3883,71 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E52" s="3">
         <v>19900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3200</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3843,8 +3963,11 @@
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3920,71 +4043,74 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>746900</v>
+      </c>
+      <c r="E54" s="3">
         <v>817100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>887600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>947600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>964600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1038600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1079200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1126700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1179000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1227800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1222500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1258500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>688500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>717800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>695500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>734000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>749400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>773900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>435200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>148800</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3997,8 +4123,11 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4026,8 +4155,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4055,71 +4185,72 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E57" s="3">
         <v>13900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>23500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1300</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4132,8 +4263,11 @@
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4185,15 +4319,15 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3">
         <v>139600</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4209,71 +4343,74 @@
       <c r="AA58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E59" s="3">
         <v>40600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>37800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>35200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>37900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>42000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>35000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>40000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>83900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>31800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>23800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>25300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>16800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13500</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4286,71 +4423,74 @@
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E60" s="3">
         <v>54500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>48900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>44900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>36900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>48200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>53500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>46000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>54800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>94300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>50100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>40900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>26800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>33100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>33400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>38000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>27300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>29500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>159500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>14700</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4363,8 +4503,11 @@
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4440,71 +4583,74 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E62" s="3">
         <v>96700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>98700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>100800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>72500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>74100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>55800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>56900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>54400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>53900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>53600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>54200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>55200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>55700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>42500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>40400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>40900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>41200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>33100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2500</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4517,8 +4663,11 @@
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4594,8 +4743,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4671,8 +4823,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4748,71 +4903,74 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>154600</v>
+      </c>
+      <c r="E66" s="3">
         <v>151200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>147600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>145700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>109400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>122200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>109300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>102900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>109300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>148200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>103800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>95100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>82000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>88800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>75800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>78400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>68100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>70700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>192600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>17200</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4825,8 +4983,11 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4854,8 +5015,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4931,8 +5093,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5008,8 +5173,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5065,13 +5233,13 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
-        <v>411100</v>
+        <v>0</v>
       </c>
       <c r="V70" s="3">
         <v>411100</v>
       </c>
       <c r="W70" s="3">
-        <v>0</v>
+        <v>411100</v>
       </c>
       <c r="X70" s="3">
         <v>0</v>
@@ -5085,8 +5253,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5162,71 +5333,74 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1334700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1236000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1141100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1058000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-983200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-903300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-828500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-750300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-679400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-646300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-577800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-511600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-450600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-396100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-335100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-284400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-243100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-211500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-181000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-137500</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5239,8 +5413,11 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5316,8 +5493,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5393,8 +5573,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5470,71 +5653,74 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>592300</v>
+      </c>
+      <c r="E76" s="3">
         <v>665900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>740000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>801900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>855200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>916400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>969900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1023800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1069800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1079600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1118700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1163400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>606500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>629000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>619700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>655600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>681200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>703200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-168400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-279400</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5547,8 +5733,11 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5624,79 +5813,82 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5706,74 +5898,77 @@
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-98700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-94800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-83100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-74800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-79900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-74900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-78200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-70900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-33000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-68600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-66200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-61000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-54500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-50700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-41200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-31600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-30500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-43500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-137500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2600</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5783,8 +5978,11 @@
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5812,61 +6010,62 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E83" s="3">
         <v>3100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>3700</v>
       </c>
       <c r="G83" s="3">
         <v>3700</v>
       </c>
       <c r="H83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I83" s="3">
         <v>4200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1900</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1800</v>
       </c>
       <c r="M83" s="3">
         <v>1800</v>
       </c>
       <c r="N83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O83" s="3">
         <v>1900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>700</v>
-      </c>
-      <c r="T83" s="3">
-        <v>500</v>
       </c>
       <c r="U83" s="3">
         <v>500</v>
@@ -5875,10 +6074,10 @@
         <v>500</v>
       </c>
       <c r="W83" s="3">
-        <v>0</v>
-      </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
@@ -5889,8 +6088,11 @@
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5966,8 +6168,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6043,8 +6248,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6120,8 +6328,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6197,8 +6408,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6274,73 +6488,76 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-66600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-62100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-47700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-42500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-68200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-45400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-48900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-41200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-49300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-37600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-26700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-40800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-50300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-31900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-24900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-30300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-21500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-17100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6000</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
+      <c r="X89" s="3">
+        <v>0</v>
       </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
@@ -6351,8 +6568,11 @@
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6380,71 +6600,72 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-12300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-500</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6457,8 +6678,11 @@
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6534,8 +6758,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6611,73 +6838,76 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>112900</v>
+      </c>
+      <c r="E94" s="3">
         <v>49600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>24900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>54000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>29300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>13000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>24600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>96800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>22200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-83400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-429000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>7900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>78800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>44500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>32900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-313400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-316800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2600</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
@@ -6688,8 +6918,11 @@
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6717,8 +6950,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6794,8 +7028,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6871,8 +7108,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6948,8 +7188,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7025,73 +7268,76 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>13000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>16600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>56500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>344500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>274100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>152600</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
+      <c r="X100" s="3">
+        <v>0</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
@@ -7102,8 +7348,11 @@
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7179,73 +7428,76 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-21700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-88800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-15900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-33500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>53500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>25200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-117100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>144500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-39200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>14100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>48400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>19800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>9700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-59800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>143900</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
+      <c r="X102" s="3">
+        <v>0</v>
       </c>
       <c r="Y102" s="3" t="s">
         <v>3</v>
@@ -7254,6 +7506,9 @@
         <v>3</v>
       </c>
       <c r="AA102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="92">
   <si>
     <t>ALLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,107 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
@@ -774,22 +775,25 @@
       <c r="AB7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -798,17 +802,17 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>38300</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -824,8 +828,8 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -854,8 +858,11 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -934,8 +941,11 @@
       <c r="AB9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1014,8 +1024,11 @@
       <c r="AB10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,74 +1057,75 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E12" s="3">
         <v>80200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>75400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>63600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>57200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>60200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>54000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>58700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>52300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>55200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>52200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>51400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>47300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>42000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>49800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>39300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>30000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>20700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>17000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>9000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>120600</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,8 +1138,11 @@
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1204,8 +1221,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1230,17 +1250,17 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1248,30 +1268,30 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3">
         <v>-400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>21300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3700</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1284,8 +1304,11 @@
       <c r="AB14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1364,8 +1387,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1391,77 +1417,78 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>80600</v>
+      </c>
+      <c r="E17" s="3">
         <v>99100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>96400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>82500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>76700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>80100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>73900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>77700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>71100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>71500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>69400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>68000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>63200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>57700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>64600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>55000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>46000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>36500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>34800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>41600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>137600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2600</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,41 +1498,44 @@
       <c r="AB17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-99000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-96400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-82500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-76600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-80000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-73800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-77700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-71100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-33200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1521,27 +1551,27 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
         <v>-46000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-36500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-34800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-41600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-137600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,8 +1581,11 @@
       <c r="AB18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1581,41 +1614,42 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1631,26 +1665,26 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
         <v>4600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
+      <c r="Y20" s="3">
+        <v>0</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>3</v>
@@ -1661,41 +1695,44 @@
       <c r="AB20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-95200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-91800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-79300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-71100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-76200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-70600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-75900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-69000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-31100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1711,27 +1748,27 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>-40300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-30900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-30100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-39600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-137000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,8 +1778,11 @@
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1782,30 +1822,30 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>3400</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1821,77 +1861,80 @@
       <c r="AB22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-98700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-94800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-83100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-74800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-79900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-74900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-78200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-70900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-33000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-68600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-66200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-61000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-54500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-61200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-50700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-41400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-31600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-30600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-43500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-137500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1901,8 +1944,11 @@
       <c r="AB23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1927,14 +1973,14 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1946,31 +1992,31 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-200</v>
-      </c>
-      <c r="T24" s="3">
-        <v>-100</v>
       </c>
       <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
+      <c r="V24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>3</v>
+      <c r="Y24" s="3">
+        <v>0</v>
       </c>
       <c r="Z24" s="3" t="s">
         <v>3</v>
@@ -1981,8 +2027,11 @@
       <c r="AB24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2061,77 +2110,80 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-98700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-94800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-83100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-74800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-79900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-74900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-78200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-70900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-33000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-68600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-66200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-61000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-54500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-61000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-50700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-41200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-31600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-30500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-43500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-137500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2141,77 +2193,80 @@
       <c r="AB26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-98700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-94800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-83100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-74800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-79900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-74900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-78200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-70900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-33000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-68600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-66200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-61000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-54500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-61000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-50700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-41200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-31600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-30500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-43500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-137500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2221,8 +2276,11 @@
       <c r="AB27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2301,8 +2359,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2381,8 +2442,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2461,8 +2525,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2541,41 +2608,44 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,26 +2661,26 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3">
         <v>-4600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
+      <c r="Y32" s="3">
+        <v>0</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>3</v>
@@ -2621,77 +2691,80 @@
       <c r="AB32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-98700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-94800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-83100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-74800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-79900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-74900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-78200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-70900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-33000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-68600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-66200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-61000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-54500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-61000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-50700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-41200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-31600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-30500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-43500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-137500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2701,8 +2774,11 @@
       <c r="AB33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2781,77 +2857,80 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-98700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-94800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-83100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-74800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-79900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-74900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-78200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-70900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-33000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-68600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-66200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-61000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-54500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-61000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-50700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-41200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-31600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-30500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-43500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-137500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,82 +2940,85 @@
       <c r="AB35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2946,8 +3028,11 @@
       <c r="AB38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2976,8 +3061,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3006,74 +3092,75 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>154800</v>
+      </c>
+      <c r="E41" s="3">
         <v>109900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>61900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>74400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>96000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>84500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>173300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>190000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>223500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>236900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>183400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>158100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>280400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>135900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>175100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>161000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>112600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>92700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>92400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>83100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>143900</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3086,71 +3173,74 @@
       <c r="AB41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>337200</v>
+      </c>
+      <c r="E42" s="3">
         <v>361300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>455400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>477900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>394500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>364500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>284000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>293500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>364200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>462700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>644600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>682900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>619300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>357000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>355400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>340300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>389800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>373400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>367000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>161100</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3166,8 +3256,11 @@
       <c r="AB42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3207,21 +3300,21 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3">
         <v>2400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3300</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3234,8 +3327,8 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
@@ -3246,8 +3339,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3326,74 +3422,77 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E45" s="3">
         <v>10200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>300</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3406,74 +3505,77 @@
       <c r="AB45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>502100</v>
+      </c>
+      <c r="E46" s="3">
         <v>481500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>528800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>569100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>513000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>469700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>471300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>502900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>602200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>716100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>845100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>854100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>909600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>504400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>544600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>509800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>511500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>476600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>468000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>247400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>144300</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3486,71 +3588,74 @@
       <c r="AB46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E47" s="3">
         <v>53900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>72000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>99200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>211300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>298300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>370200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>396100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>344300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>283900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>207900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>212500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>215500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>65000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>63200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>100700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>147800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>214600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>262000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>154000</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3566,74 +3671,77 @@
       <c r="AB47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>186700</v>
+      </c>
+      <c r="E48" s="3">
         <v>191800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>196400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>199700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>204100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>177300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>181000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>164600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>164900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>163300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>160100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>144200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>127000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>110200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>100900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>77400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>67700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>52800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>41600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>29700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3500</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3646,8 +3754,11 @@
       <c r="AB48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3691,29 +3802,29 @@
         <v>0</v>
       </c>
       <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
         <v>200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1100</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3726,8 +3837,11 @@
       <c r="AB49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3806,8 +3920,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3886,8 +4003,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3895,62 +4015,62 @@
         <v>19700</v>
       </c>
       <c r="E52" s="3">
+        <v>19700</v>
+      </c>
+      <c r="F52" s="3">
         <v>19900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3200</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3966,8 +4086,11 @@
       <c r="AB52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4046,74 +4169,77 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>771000</v>
+      </c>
+      <c r="E54" s="3">
         <v>746900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>817100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>887600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>947600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>964600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1038600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1079200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1126700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1179000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1227800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1222500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1258500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>688500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>717800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>695500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>734000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>749400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>773900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>435200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>148800</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4126,8 +4252,11 @@
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4156,8 +4285,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4186,74 +4316,75 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E57" s="3">
         <v>14700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>23500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1300</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4266,8 +4397,11 @@
       <c r="AB57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4322,15 +4456,15 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W58" s="3">
         <v>139600</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4346,74 +4480,77 @@
       <c r="AB58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E59" s="3">
         <v>44900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>40600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>37800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>35200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>37900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>42000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>35000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>40000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>83900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>40000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>31800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>23800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>25300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>16800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13500</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4426,74 +4563,77 @@
       <c r="AB59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E60" s="3">
         <v>59600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>54500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>48900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>44900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>48200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>53500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>46000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>54800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>94300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>50100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>40900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>26800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>33100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>33400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>38000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>27300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>29500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>159500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>14700</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4506,8 +4646,11 @@
       <c r="AB60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4586,74 +4729,77 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E62" s="3">
         <v>95000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>96700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>98700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>100800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>72500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>74100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>55800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>56900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>54400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>53900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>53600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>54200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>55200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>55700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>42500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>40400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>40900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>41200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>33100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2500</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4666,8 +4812,11 @@
       <c r="AB62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4746,8 +4895,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4826,8 +4978,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4906,74 +5061,77 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E66" s="3">
         <v>154600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>151200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>147600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>145700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>109400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>122200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>109300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>102900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>109300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>148200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>103800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>95100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>82000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>88800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>75800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>78400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>68100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>70700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>192600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>17200</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4986,8 +5144,11 @@
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5016,8 +5177,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5096,8 +5258,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5176,8 +5341,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5236,13 +5404,13 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
-        <v>411100</v>
+        <v>0</v>
       </c>
       <c r="W70" s="3">
         <v>411100</v>
       </c>
       <c r="X70" s="3">
-        <v>0</v>
+        <v>411100</v>
       </c>
       <c r="Y70" s="3">
         <v>0</v>
@@ -5256,8 +5424,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5336,74 +5507,77 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1412700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1334700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1236000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1141100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1058000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-983200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-903300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-828500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-750300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-679400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-646300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-577800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-511600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-450600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-396100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-335100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-284400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-243100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-211500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-181000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-137500</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5416,8 +5590,11 @@
       <c r="AB72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5496,8 +5673,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5576,8 +5756,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5656,74 +5839,77 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>622900</v>
+      </c>
+      <c r="E76" s="3">
         <v>592300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>665900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>740000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>801900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>855200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>916400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>969900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1023800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1069800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1079600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1118700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1163400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>606500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>629000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>619700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>655600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>681200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>703200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-168400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-279400</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5736,8 +5922,11 @@
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5816,82 +6005,85 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5901,77 +6093,80 @@
       <c r="AB80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-98700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-94800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-83100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-74800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-79900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-74900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-78200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-70900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-33000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-68600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-66200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-61000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-54500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-61000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-50700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-41200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-31600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-30500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-43500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-137500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5981,8 +6176,11 @@
       <c r="AB81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6011,64 +6209,65 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E83" s="3">
         <v>3500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3700</v>
       </c>
       <c r="H83" s="3">
         <v>3700</v>
       </c>
       <c r="I83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J83" s="3">
         <v>4200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1800</v>
       </c>
       <c r="N83" s="3">
         <v>1800</v>
       </c>
       <c r="O83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P83" s="3">
         <v>1900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>700</v>
-      </c>
-      <c r="U83" s="3">
-        <v>500</v>
       </c>
       <c r="V83" s="3">
         <v>500</v>
@@ -6077,10 +6276,10 @@
         <v>500</v>
       </c>
       <c r="X83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>3</v>
@@ -6091,8 +6290,11 @@
       <c r="AB83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6171,8 +6373,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6251,8 +6456,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6331,8 +6539,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6411,8 +6622,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6491,76 +6705,79 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-61900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-66600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-62100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-47700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-42500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-68200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-45400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-48900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-41200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-49300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-37600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-26700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-40800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-50300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-31900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-24900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-30300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-21500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-17100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-6000</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
+      <c r="Y89" s="3">
+        <v>0</v>
       </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
@@ -6571,8 +6788,11 @@
       <c r="AB89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6601,74 +6821,75 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-14100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-18400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-500</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6681,8 +6902,11 @@
       <c r="AB91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6761,8 +6985,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6841,76 +7068,79 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E94" s="3">
         <v>112900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>49600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>24900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>54000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>29300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>13000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>24600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>96800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>22200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-83400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-429000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>7900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>78800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>44500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>32900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-313400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-316800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2600</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
+      <c r="Y94" s="3">
+        <v>0</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>3</v>
@@ -6921,8 +7151,11 @@
       <c r="AB94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6951,8 +7184,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7031,8 +7265,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7111,8 +7348,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7191,8 +7431,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7271,76 +7514,79 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>89500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>13000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>16600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>56500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>344500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>274100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>152600</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
+      <c r="Y100" s="3">
+        <v>0</v>
       </c>
       <c r="Z100" s="3" t="s">
         <v>3</v>
@@ -7351,8 +7597,11 @@
       <c r="AB100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7431,76 +7680,79 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E102" s="3">
         <v>48000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-21700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-88800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-15900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-33500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>53500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>25200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-117100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>144500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-39200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>48400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>19800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>9700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-59800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>143900</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="3" t="s">
-        <v>3</v>
+      <c r="Y102" s="3">
+        <v>0</v>
       </c>
       <c r="Z102" s="3" t="s">
         <v>3</v>
@@ -7509,6 +7761,9 @@
         <v>3</v>
       </c>
       <c r="AB102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="92">
   <si>
     <t>ALLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,110 +665,111 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
@@ -778,8 +779,11 @@
       <c r="AC7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -787,16 +791,16 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -805,17 +809,17 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>38300</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -831,8 +835,8 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -861,8 +865,11 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -944,8 +951,11 @@
       <c r="AC9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1027,8 +1037,11 @@
       <c r="AC10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,77 +1071,78 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E12" s="3">
         <v>62000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>80200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>75400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>63600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>57200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>60200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>54000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>58700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>52300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>55200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>52200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>51400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>47300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>42000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>49800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>39300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>30000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>20700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>17000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>9000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>120600</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1141,8 +1155,11 @@
       <c r="AC12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1224,8 +1241,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1253,17 +1273,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
@@ -1271,30 +1291,30 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3">
         <v>-400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>21300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3700</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1307,8 +1327,11 @@
       <c r="AC14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1390,8 +1413,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1418,80 +1444,81 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E17" s="3">
         <v>80600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>99100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>96400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>82500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>76700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>80100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>73900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>77700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>71100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>71500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>69400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>68000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>63200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>57700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>64600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>55000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>46000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>36500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>34800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>41600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>137600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2600</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1501,8 +1528,11 @@
       <c r="AC17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1510,35 +1540,35 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-80600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-99000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-96400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-82500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-76600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-80000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-73800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-77700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-71100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-33200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1554,27 +1584,27 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3">
         <v>-46000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-36500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-34800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-41600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-137600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1584,8 +1614,11 @@
       <c r="AC18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1615,8 +1648,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1624,35 +1658,35 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1668,26 +1702,26 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3">
         <v>4600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
+      <c r="Z20" s="3">
+        <v>0</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>3</v>
@@ -1698,8 +1732,11 @@
       <c r="AC20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1707,35 +1744,35 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-95200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-91800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-79300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-71100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-76200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-70600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-75900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-69000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-31100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1751,27 +1788,27 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
         <v>-40300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-30900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-30100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-39600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-137000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1781,8 +1818,11 @@
       <c r="AC21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1825,30 +1865,30 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>3400</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1864,80 +1904,83 @@
       <c r="AC22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-78000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-98700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-94800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-83100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-74800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-79900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-74900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-78200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-70900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-33000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-68600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-66200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-54500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-61200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-50700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-41400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-31600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-30600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-43500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-137500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1947,8 +1990,11 @@
       <c r="AC23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1976,14 +2022,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1995,31 +2041,31 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-200</v>
-      </c>
-      <c r="U24" s="3">
-        <v>-100</v>
       </c>
       <c r="V24" s="3">
         <v>-100</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
+      <c r="W24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>3</v>
+      <c r="Z24" s="3">
+        <v>0</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>3</v>
@@ -2030,8 +2076,11 @@
       <c r="AC24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2113,80 +2162,83 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-78000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-98700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-94800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-83100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-74800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-79900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-74900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-78200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-70900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-33000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-68600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-66200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-54500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-61000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-50700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-41200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-31600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-30500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-43500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-137500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,80 +2248,83 @@
       <c r="AC26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-78000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-98700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-94800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-83100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-74800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-79900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-74900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-78200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-70900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-33000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-68600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-66200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-54500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-61000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-50700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-41200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-31600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-30500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-43500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-137500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,8 +2334,11 @@
       <c r="AC27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2362,8 +2420,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2445,8 +2506,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2528,8 +2592,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2611,8 +2678,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2620,35 +2690,35 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2664,26 +2734,26 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3">
         <v>-4600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
+      <c r="Z32" s="3">
+        <v>0</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>3</v>
@@ -2694,80 +2764,83 @@
       <c r="AC32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-78000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-98700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-94800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-83100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-74800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-79900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-74900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-78200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-70900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-33000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-68600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-66200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-54500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-61000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-50700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-41200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-31600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-30500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-43500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-137500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2777,8 +2850,11 @@
       <c r="AC33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2860,80 +2936,83 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-78000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-98700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-94800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-83100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-74800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-79900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-74900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-78200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-70900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-33000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-68600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-66200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-54500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-61000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-50700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-41200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-31600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-30500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-43500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-137500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,85 +3022,88 @@
       <c r="AC35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3113,11 @@
       <c r="AC38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3062,8 +3147,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3093,77 +3179,78 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E41" s="3">
         <v>154800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>109900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>61900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>74400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>96000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>84500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>173300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>190000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>223500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>236900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>183400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>158100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>280400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>135900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>175100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>161000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>112600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>92700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>92400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>83100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>143900</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,74 +3263,77 @@
       <c r="AC41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>396300</v>
+      </c>
+      <c r="E42" s="3">
         <v>337200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>361300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>455400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>477900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>394500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>364500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>284000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>293500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>364200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>462700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>644600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>682900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>619300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>357000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>355400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>340300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>389800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>373400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>367000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>161100</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3259,8 +3349,11 @@
       <c r="AC42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3303,21 +3396,21 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3">
         <v>2400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3300</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,8 +3423,8 @@
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z43" s="3">
-        <v>0</v>
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
@@ -3342,8 +3435,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3425,77 +3521,80 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E45" s="3">
         <v>10100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>300</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,77 +3607,80 @@
       <c r="AC45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>473500</v>
+      </c>
+      <c r="E46" s="3">
         <v>502100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>481500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>528800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>569100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>513000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>469700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>471300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>502900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>602200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>716100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>845100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>854100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>909600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>504400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>544600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>509800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>511500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>476600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>468000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>247400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>144300</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3591,74 +3693,77 @@
       <c r="AC46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E47" s="3">
         <v>62500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>53900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>72000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>99200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>211300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>298300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>370200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>396100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>344300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>283900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>207900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>212500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>215500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>65000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>63200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>100700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>147800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>214600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>262000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>154000</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3674,77 +3779,80 @@
       <c r="AC47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>181500</v>
+      </c>
+      <c r="E48" s="3">
         <v>186700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>191800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>196400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>199700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>204100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>177300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>181000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>164600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>164900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>163300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>160100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>144200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>127000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>110200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>100900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>77400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>67700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>52800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>41600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>29700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3500</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3757,8 +3865,11 @@
       <c r="AC48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3805,29 +3916,29 @@
         <v>0</v>
       </c>
       <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1100</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3840,8 +3951,11 @@
       <c r="AC49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3923,8 +4037,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4006,74 +4123,77 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19700</v>
+        <v>19900</v>
       </c>
       <c r="E52" s="3">
         <v>19700</v>
       </c>
       <c r="F52" s="3">
+        <v>19700</v>
+      </c>
+      <c r="G52" s="3">
         <v>19900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>19300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3200</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4089,8 +4209,11 @@
       <c r="AC52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4172,77 +4295,80 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>712300</v>
+      </c>
+      <c r="E54" s="3">
         <v>771000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>746900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>817100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>887600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>947600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>964600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1038600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1079200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1126700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1179000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1227800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1222500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1258500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>688500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>717800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>695500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>734000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>749400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>773900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>435200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>148800</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4255,8 +4381,11 @@
       <c r="AC54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4286,8 +4415,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4317,77 +4447,78 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E57" s="3">
         <v>10200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>23500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1300</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4400,8 +4531,11 @@
       <c r="AC57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4459,15 +4593,15 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X58" s="3">
         <v>139600</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4483,77 +4617,80 @@
       <c r="AC58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E59" s="3">
         <v>44500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>44900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>40600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>37800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>35200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>28200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>37900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>42000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>83900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>40000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>31800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>23800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>25300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>16800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>13500</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4566,77 +4703,80 @@
       <c r="AC59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E60" s="3">
         <v>54700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>59600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>54500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>48900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>44900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>36900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>48200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>53500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>46000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>54800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>94300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>50100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>40900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>26800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>33100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>33400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>38000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>27300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>29500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>159500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>14700</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4649,8 +4789,11 @@
       <c r="AC60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4732,77 +4875,80 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E62" s="3">
         <v>93300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>95000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>96700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>98700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>100800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>72500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>74100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>55800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>56900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>54400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>53900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>53600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>54200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>55200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>55700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>42500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>40400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>40900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>41200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>33100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2500</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4815,8 +4961,11 @@
       <c r="AC62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4898,8 +5047,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4981,8 +5133,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5064,77 +5219,80 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>129200</v>
+      </c>
+      <c r="E66" s="3">
         <v>148100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>154600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>151200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>147600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>145700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>109400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>122200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>109300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>102900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>109300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>148200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>103800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>95100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>82000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>88800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>75800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>78400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>68100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>70700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>192600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>17200</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5147,8 +5305,11 @@
       <c r="AC66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5178,8 +5339,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5261,8 +5423,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5344,8 +5509,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5407,13 +5575,13 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
-        <v>411100</v>
+        <v>0</v>
       </c>
       <c r="X70" s="3">
         <v>411100</v>
       </c>
       <c r="Y70" s="3">
-        <v>0</v>
+        <v>411100</v>
       </c>
       <c r="Z70" s="3">
         <v>0</v>
@@ -5427,8 +5595,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5510,77 +5681,80 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1474000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1412700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1334700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1236000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1141100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1058000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-983200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-903300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-828500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-750300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-679400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-646300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-577800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-511600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-450600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-396100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-335100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-284400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-243100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-211500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-181000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-137500</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5593,8 +5767,11 @@
       <c r="AC72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5676,8 +5853,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5759,8 +5939,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5842,77 +6025,80 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>583100</v>
+      </c>
+      <c r="E76" s="3">
         <v>622900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>592300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>665900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>740000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>801900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>855200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>916400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>969900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1023800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1069800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1079600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1118700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1163400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>606500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>629000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>619700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>655600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>681200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>703200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-168400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-279400</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5925,8 +6111,11 @@
       <c r="AC76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6008,85 +6197,88 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
@@ -6096,80 +6288,83 @@
       <c r="AC80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-78000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-98700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-94800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-83100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-74800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-79900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-74900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-78200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-70900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-33000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-68600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-66200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-54500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-61000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-50700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-41200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-31600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-30500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-43500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-137500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
@@ -6179,8 +6374,11 @@
       <c r="AC81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6210,8 +6408,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6219,58 +6418,58 @@
         <v>3600</v>
       </c>
       <c r="E83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F83" s="3">
         <v>3500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3700</v>
       </c>
       <c r="I83" s="3">
         <v>3700</v>
       </c>
       <c r="J83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K83" s="3">
         <v>4200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1900</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1800</v>
       </c>
       <c r="O83" s="3">
         <v>1800</v>
       </c>
       <c r="P83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>700</v>
-      </c>
-      <c r="V83" s="3">
-        <v>500</v>
       </c>
       <c r="W83" s="3">
         <v>500</v>
@@ -6279,10 +6478,10 @@
         <v>500</v>
       </c>
       <c r="Y83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>3</v>
@@ -6293,8 +6492,11 @@
       <c r="AC83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6376,8 +6578,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6459,8 +6664,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6542,8 +6750,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6625,8 +6836,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6708,79 +6922,82 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-61900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-66600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-62100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-47700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-42500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-68200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-45400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-48900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-41200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-49300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-37600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-26700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-40800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-50300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-31900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-24900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-30300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-21500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-17100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
+      <c r="Z89" s="3">
+        <v>0</v>
       </c>
       <c r="AA89" s="3" t="s">
         <v>3</v>
@@ -6791,8 +7008,11 @@
       <c r="AC89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6822,77 +7042,78 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-18400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-500</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6905,8 +7126,11 @@
       <c r="AC91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6988,8 +7212,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7071,79 +7298,82 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E94" s="3">
         <v>17200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>112900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>49600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>24900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>54000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-22400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>29300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>13000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>24600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>96800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>22200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-83400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-429000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>7900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>78800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>44500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>32900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-313400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-316800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
+      <c r="Z94" s="3">
+        <v>0</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>3</v>
@@ -7154,8 +7384,11 @@
       <c r="AC94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7185,8 +7418,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7268,8 +7502,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7351,8 +7588,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7434,8 +7674,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7517,79 +7760,82 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E100" s="3">
         <v>89500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>13000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>16600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>56500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>344500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>274100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>152600</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
+      <c r="Z100" s="3">
+        <v>0</v>
       </c>
       <c r="AA100" s="3" t="s">
         <v>3</v>
@@ -7600,8 +7846,11 @@
       <c r="AC100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7683,79 +7932,82 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-85500</v>
+      </c>
+      <c r="E102" s="3">
         <v>44800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>48000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-21700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-88800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-15900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-33500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>53500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>25200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-117100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>144500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-39200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>48400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>19800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>9700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-59800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>143900</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z102" s="3" t="s">
-        <v>3</v>
+      <c r="Z102" s="3">
+        <v>0</v>
       </c>
       <c r="AA102" s="3" t="s">
         <v>3</v>
@@ -7764,6 +8016,9 @@
         <v>3</v>
       </c>
       <c r="AC102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
